--- a/论文用到的实验数据.xlsx
+++ b/论文用到的实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Default Box的尺度大小" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="学习率影响" sheetId="5" r:id="rId4"/>
     <sheet name="多尺度输入" sheetId="6" r:id="rId5"/>
     <sheet name="初始Default Box的设置情况" sheetId="7" r:id="rId6"/>
+    <sheet name="训练集" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="132">
   <si>
     <t>实验组名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +456,111 @@
   </si>
   <si>
     <t>测试图像尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coco-text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑选的样本数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICDAR2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCUT_FORU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原训练集大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（水平）单词级bounding box，单词内容，清晰/模糊，机器印刷/手写，英语/非英语，编码格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(水平）单词级bounding box，单词内容【水平字符级bounding box】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 图像格式不对；
+2. 框超边界（这个问题事实上不解决也行）； 
+3. 标注遗漏太多或者错误的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后训练集+测试集共1560张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符级，单词级，分割标注，水平bounding box，单词内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># word(train)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># word(total)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># word(val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原测试集大小（验证集）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 最后训练集1264，测试集526，加起来=1790
+2. 有10000张测试集没有标注，没有用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000作为验证集，还有10000张做测试集，且没有标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 大量没有文字的图像（至少有一半）；
+2. 模糊的图像很多；
+3. 非英语的很多；【挑选之后剩1587+1194 = 2781】
+4. 水印文字（不是在自然场景下拍摄，而是后期加上去的文字）很多，其中有很多广告之类的
+5. 除了标注的模糊，还有很多看不清，太模糊的，字太小，或者扭曲形变的比较厉害；
+6. 标注遗漏或者错误的
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,8 +569,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -636,29 +742,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,6 +761,51 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,35 +815,32 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,35 +851,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1041,16 +1150,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -1173,17 +1282,17 @@
       <c r="I8" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
@@ -1210,24 +1319,24 @@
       <c r="I11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="30">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="18">
         <v>62.192</v>
       </c>
     </row>
@@ -1235,79 +1344,79 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="30">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="18">
         <v>74.671000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="39" t="e">
+      <c r="D14" s="22" t="e">
         <f>2/(1/D12+1/D13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="39" t="e">
+      <c r="E14" s="22" t="e">
         <f t="shared" ref="E14:H14" si="0">2/(1/E12+1/E13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="39" t="e">
+      <c r="F14" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="39" t="e">
+      <c r="G14" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="39" t="e">
+      <c r="H14" s="22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="39" t="e">
+      <c r="I14" s="22" t="e">
         <f>2/(1/I12+1/I13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="18">
         <v>67.861999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="22">
         <v>14.521000000000001</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="22">
         <v>20</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="22">
         <v>18.63</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="22">
         <v>10.502000000000001</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="22">
         <v>5.8449999999999998</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="22">
         <v>1.0960000000000001</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="18">
         <v>57.533999999999999</v>
       </c>
     </row>
@@ -1315,92 +1424,92 @@
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="22">
         <v>61.39</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="22">
         <v>75.516999999999996</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="22">
         <v>79.069999999999993</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="22">
         <v>74.194000000000003</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="22">
         <v>73.563000000000002</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="22">
         <v>66.667000000000002</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="18">
         <v>70.549000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="22">
         <f>2/(1/D15+1/D16)</f>
         <v>23.48656163138412</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="22">
         <f t="shared" ref="E17:I17" si="1">2/(1/E15+1/E16)</f>
         <v>31.624527571008297</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="22">
         <f t="shared" si="1"/>
         <v>30.155048106448312</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="22">
         <f t="shared" si="1"/>
         <v>18.399579389817703</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="22">
         <f t="shared" si="1"/>
         <v>10.829531911142453</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="22">
         <f t="shared" si="1"/>
         <v>2.1565465519531313</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="18">
         <f>2/(1/J15+1/J16)</f>
         <v>63.380248214048713</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="22">
         <v>27.763000000000002</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="22">
         <v>25.936</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="22">
         <v>12.968</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="22">
         <v>3.379</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="22">
         <v>1.9179999999999999</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="22">
         <v>0.54800000000000004</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="20">
         <v>64.658000000000001</v>
       </c>
     </row>
@@ -1408,62 +1517,62 @@
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="22">
         <v>72.554000000000002</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="22">
         <v>84.024000000000001</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="22">
         <v>86.584999999999994</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="22">
         <v>80.435000000000002</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="22">
         <v>84</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="22">
         <v>85.713999999999999</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="20">
         <v>79.283000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="22">
         <f>2/(1/D18+1/D19)</f>
         <v>40.159029915168915</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="22">
         <f t="shared" ref="E20" si="2">2/(1/E18+1/E19)</f>
         <v>39.637076464168786</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="22">
         <f t="shared" ref="F20" si="3">2/(1/F18+1/F19)</f>
         <v>22.557517704137492</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="22">
         <f t="shared" ref="G20" si="4">2/(1/G18+1/G19)</f>
         <v>6.4855481184527655</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="22">
         <f t="shared" ref="H20" si="5">2/(1/H18+1/H19)</f>
         <v>3.7503666286459181</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="22">
         <f>2/(1/I18+1/I19)</f>
         <v>1.0890373976953933</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="19">
         <f>2/(1/J18+1/J19)</f>
         <v>71.227519803252719</v>
       </c>
@@ -1512,16 +1621,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D4" s="4" t="s">
@@ -1553,7 +1662,7 @@
       <c r="D5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1579,7 +1688,7 @@
       <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1602,27 +1711,27 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="M14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1643,75 +1752,75 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="L15">
         <v>12</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="28" t="s">
         <v>52</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="9">
         <v>3</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="18">
         <v>65.844999999999999</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="18">
         <v>79.144000000000005</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="18">
         <f t="shared" ref="R15:R21" si="0">2/(1/P15+1/Q15)</f>
         <v>71.884579933650144</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="L16">
         <v>10</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="9">
         <v>4</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="18">
         <v>66.667000000000002</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="18">
         <v>79.606999999999999</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="19">
         <f t="shared" si="0"/>
         <v>72.564637174070583</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="L17">
         <v>11</v>
       </c>
-      <c r="M17" s="19"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="9">
         <v>5</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="18">
         <v>65.022999999999996</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="18">
         <v>80.451999999999998</v>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="18">
         <f t="shared" si="0"/>
         <v>71.919304292833814</v>
       </c>
@@ -1720,20 +1829,20 @@
       <c r="L18">
         <v>13</v>
       </c>
-      <c r="M18" s="19"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="9">
         <v>6</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="18">
         <v>64.932000000000002</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="18">
         <v>76.287999999999997</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="18">
         <f t="shared" si="0"/>
         <v>70.153411924656567</v>
       </c>
@@ -1742,20 +1851,20 @@
       <c r="L19">
         <v>14</v>
       </c>
-      <c r="M19" s="19"/>
+      <c r="M19" s="28"/>
       <c r="N19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="9">
         <v>7</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="18">
         <v>64.748999999999995</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="18">
         <v>78.429000000000002</v>
       </c>
-      <c r="R19" s="30">
+      <c r="R19" s="18">
         <f t="shared" si="0"/>
         <v>70.935469429660984</v>
       </c>
@@ -1764,22 +1873,22 @@
       <c r="L20">
         <v>2</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="28" t="s">
         <v>55</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="O20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="18">
         <v>59.725999999999999</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="18">
         <v>70.55</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="18">
         <f t="shared" si="0"/>
         <v>64.688343209800735</v>
       </c>
@@ -1788,20 +1897,20 @@
       <c r="L21">
         <v>3</v>
       </c>
-      <c r="M21" s="19"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="18">
         <v>58.539000000000001</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="18">
         <v>68.337000000000003</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="18">
         <f t="shared" si="0"/>
         <v>63.059674690248748</v>
       </c>
@@ -1810,20 +1919,20 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22" s="19"/>
+      <c r="M22" s="28"/>
       <c r="N22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="18">
         <v>57.991</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="18">
         <v>68.872</v>
       </c>
-      <c r="R22" s="30">
+      <c r="R22" s="18">
         <f>2/(1/P22+1/Q22)</f>
         <v>62.964870009380199</v>
       </c>
@@ -1832,19 +1941,19 @@
       <c r="L23">
         <v>4</v>
       </c>
-      <c r="M23" s="19"/>
+      <c r="M23" s="28"/>
       <c r="N23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M24" s="23"/>
+      <c r="M24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1876,14 +1985,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="3:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D4" s="4" t="s">
@@ -1892,10 +2001,10 @@
       <c r="E4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="8" t="s">
         <v>107</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -1912,43 +2021,43 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="30">
         <v>300</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="9">
         <v>300</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="18">
         <v>66.667000000000002</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="18">
         <v>79.606999999999999</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="18">
         <f t="shared" ref="J5:J6" si="0">2/(1/H5+1/I5)</f>
         <v>72.564637174070583</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D6" s="14"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="16">
+      <c r="D6" s="27"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="9">
         <v>512</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="18">
         <v>65.936000000000007</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="18">
         <v>58.843000000000004</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="18">
         <f t="shared" si="0"/>
         <v>62.187900976927203</v>
       </c>
@@ -1957,16 +2066,16 @@
       <c r="C7">
         <v>17</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="30">
         <v>300</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="9">
         <v>300</v>
       </c>
       <c r="H7" s="3"/>
@@ -1974,10 +2083,10 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="14"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="16">
+      <c r="D8" s="27"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="9">
         <v>512</v>
       </c>
       <c r="H8" s="3"/>
@@ -1988,67 +2097,67 @@
       <c r="C9">
         <v>15</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="30">
         <v>512</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="9">
         <v>300</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="18">
         <v>63.014000000000003</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="18">
         <v>80.046000000000006</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="18">
         <f t="shared" ref="J9:J10" si="1">2/(1/H9+1/I9)</f>
         <v>70.516128114078015</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="14"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="16">
+      <c r="D10" s="27"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="9">
         <v>512</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="18">
         <v>73.150999999999996</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="18">
         <v>81.236999999999995</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="18">
         <f t="shared" si="1"/>
         <v>76.982249747389687</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="30">
         <v>512</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="9">
         <v>300</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="18">
         <v>69.588999999999999</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="18">
         <v>81.671999999999997</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="18">
         <v>75.147999999999996</v>
       </c>
     </row>
@@ -2056,25 +2165,30 @@
       <c r="C12">
         <v>18</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="16">
+      <c r="D12" s="27"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="9">
         <v>512</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="18">
         <v>81.096000000000004</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="18">
         <v>84.171000000000006</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="18">
         <f t="shared" ref="J12" si="2">2/(1/H12+1/I12)</f>
         <v>82.604892882426626</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="D11:D12"/>
@@ -2083,11 +2197,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,13 +2221,13 @@
   <sheetData>
     <row r="6" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" s="1"/>
@@ -2145,16 +2254,16 @@
       <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="21">
         <v>67.944999999999993</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="21">
         <v>79.317999999999998</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="21">
         <f t="shared" ref="I8:I9" si="0">2/(1/G8+1/H8)</f>
         <v>73.192336296286229</v>
       </c>
@@ -2166,16 +2275,16 @@
       <c r="E9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="21">
         <v>66.667000000000002</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="21">
         <v>79.606999999999999</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="21">
         <f t="shared" si="0"/>
         <v>72.564637174070583</v>
       </c>
@@ -2187,12 +2296,12 @@
       <c r="E10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2219,118 +2328,118 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="4:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="4:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2345,7 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -2359,16 +2468,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D5" s="4" t="s">
@@ -2418,33 +2527,33 @@
       <c r="J6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="4:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2455,4 +2564,194 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="29.25" customWidth="1"/>
+    <col min="13" max="13" width="26.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1790</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43686</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="1">
+        <v>63686</v>
+      </c>
+      <c r="H4" s="1">
+        <v>118309</v>
+      </c>
+      <c r="I4" s="1">
+        <v>27550</v>
+      </c>
+      <c r="J4" s="1">
+        <f>SUM(H4:I4)</f>
+        <v>145859</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="1">
+        <v>229</v>
+      </c>
+      <c r="E5" s="1">
+        <v>229</v>
+      </c>
+      <c r="F5" s="1">
+        <v>233</v>
+      </c>
+      <c r="G5" s="1">
+        <v>462</v>
+      </c>
+      <c r="H5" s="1">
+        <v>849</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1095</v>
+      </c>
+      <c r="J5" s="1">
+        <f>SUM(H5:I5)</f>
+        <v>1944</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="3:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1560</v>
+      </c>
+      <c r="E6">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>515</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1715</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3840</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1581</v>
+      </c>
+      <c r="J6" s="1">
+        <f>SUM(H6:I6)</f>
+        <v>5421</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUM(D4:D6)</f>
+        <v>3579</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/论文用到的实验数据.xlsx
+++ b/论文用到的实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Default Box的尺度大小" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="学习率影响" sheetId="5" r:id="rId4"/>
     <sheet name="多尺度输入" sheetId="6" r:id="rId5"/>
     <sheet name="初始Default Box的设置情况" sheetId="7" r:id="rId6"/>
-    <sheet name="训练集" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
   <si>
     <t>实验组名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,111 +455,6 @@
   </si>
   <si>
     <t>测试图像尺度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coco-text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑选的样本数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICDAR2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCUT_FORU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原训练集大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attributes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标注信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（水平）单词级bounding box，单词内容，清晰/模糊，机器印刷/手写，英语/非英语，编码格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(水平）单词级bounding box，单词内容【水平字符级bounding box】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 图像格式不对；
-2. 框超边界（这个问题事实上不解决也行）； 
-3. 标注遗漏太多或者错误的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后训练集+测试集共1560张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符级，单词级，分割标注，水平bounding box，单词内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># word(train)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># word(total)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># word(val)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原测试集大小（验证集）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 最后训练集1264，测试集526，加起来=1790
-2. 有10000张测试集没有标注，没有用到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000作为验证集，还有10000张做测试集，且没有标注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 大量没有文字的图像（至少有一半）；
-2. 模糊的图像很多；
-3. 非英语的很多；【挑选之后剩1587+1194 = 2781】
-4. 水印文字（不是在自然场景下拍摄，而是后期加上去的文字）很多，其中有很多广告之类的
-5. 除了标注的模糊，还有很多看不清，太模糊的，字太小，或者扭曲形变的比较厉害；
-6. 标注遗漏或者错误的
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,15 +715,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,9 +744,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1985,14 +1876,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="3:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D4" s="4" t="s">
@@ -2024,10 +1915,10 @@
       <c r="D5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="31">
         <v>300</v>
       </c>
       <c r="G5" s="9">
@@ -2046,8 +1937,8 @@
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D6" s="27"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="9">
         <v>512</v>
       </c>
@@ -2069,10 +1960,10 @@
       <c r="D7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="31">
         <v>300</v>
       </c>
       <c r="G7" s="9">
@@ -2084,8 +1975,8 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D8" s="27"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="9">
         <v>512</v>
       </c>
@@ -2100,10 +1991,10 @@
       <c r="D9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="31">
         <v>512</v>
       </c>
       <c r="G9" s="9">
@@ -2122,8 +2013,8 @@
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D10" s="27"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="9">
         <v>512</v>
       </c>
@@ -2142,10 +2033,10 @@
       <c r="D11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="31">
         <v>512</v>
       </c>
       <c r="G11" s="9">
@@ -2166,8 +2057,8 @@
         <v>18</v>
       </c>
       <c r="D12" s="27"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="9">
         <v>512</v>
       </c>
@@ -2184,11 +2075,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="D11:D12"/>
@@ -2197,6 +2083,11 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2454,7 +2345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -2564,194 +2455,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="29.25" customWidth="1"/>
-    <col min="13" max="13" width="26.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1790</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43686</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="1">
-        <v>63686</v>
-      </c>
-      <c r="H4" s="1">
-        <v>118309</v>
-      </c>
-      <c r="I4" s="1">
-        <v>27550</v>
-      </c>
-      <c r="J4" s="1">
-        <f>SUM(H4:I4)</f>
-        <v>145859</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="1">
-        <v>229</v>
-      </c>
-      <c r="E5" s="1">
-        <v>229</v>
-      </c>
-      <c r="F5" s="1">
-        <v>233</v>
-      </c>
-      <c r="G5" s="1">
-        <v>462</v>
-      </c>
-      <c r="H5" s="1">
-        <v>849</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1095</v>
-      </c>
-      <c r="J5" s="1">
-        <f>SUM(H5:I5)</f>
-        <v>1944</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="3:14" ht="57" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1560</v>
-      </c>
-      <c r="E6">
-        <v>1200</v>
-      </c>
-      <c r="F6" s="1">
-        <v>515</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1715</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3840</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1581</v>
-      </c>
-      <c r="J6" s="1">
-        <f>SUM(H6:I6)</f>
-        <v>5421</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="1">
-        <f>SUM(D4:D6)</f>
-        <v>3579</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/论文用到的实验数据.xlsx
+++ b/论文用到的实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Default Box的尺度大小" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="136">
   <si>
     <t>实验组名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +155,6 @@
   </si>
   <si>
     <t>Filed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -315,22 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>small300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>small512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>large300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>large512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>single3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +435,139 @@
   </si>
   <si>
     <t>测试图像尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small300_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large300_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small512_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large512_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small300_48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large300_48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small512_48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large512_48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长宽比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 8</t>
+  </si>
+  <si>
+    <t>4, 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empirical</t>
+  </si>
+  <si>
+    <t>Empirical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏检率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误检率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrondTruth分布比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All layers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchor
+召回率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchor
+准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过感受野大小计算，图像大小为300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1层: 5~10
+第2~6层: 10~70均匀变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empirical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1层: 10~20
+第2~6层: 20~90均匀变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,15 +620,27 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -632,11 +757,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,34 +948,112 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,6 +1076,25 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:S51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,133 +1389,230 @@
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
     <col min="6" max="9" width="8.375" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="18" width="8.375" customWidth="1"/>
+    <col min="19" max="19" width="9" style="67"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="68"/>
+    </row>
+    <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="K4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="L4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="N4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="O4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="P4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="Q4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="R4" s="72" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="S4" s="69"/>
+    </row>
+    <row r="5" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="L5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="N5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="O5" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="P5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="Q5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="R5" s="72" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="L6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="N6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="O6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="P6" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="Q6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="R6" s="72" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1172,25 +1620,25 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>1</v>
@@ -1211,94 +1659,118 @@
         <v>6</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="42" t="s">
+        <v>132</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="D12" s="39">
+        <v>43.744</v>
+      </c>
+      <c r="E12" s="39">
+        <v>17.991</v>
+      </c>
+      <c r="F12" s="39">
+        <v>7.032</v>
+      </c>
+      <c r="G12" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0.36499999999999999</v>
+      </c>
       <c r="J12" s="18">
         <v>62.192</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="D13" s="22">
+        <v>69.221999999999994</v>
+      </c>
+      <c r="E13" s="22">
+        <v>85.281000000000006</v>
+      </c>
+      <c r="F13" s="22">
+        <v>82.796000000000006</v>
+      </c>
+      <c r="G13" s="22">
+        <v>85.185000000000002</v>
+      </c>
+      <c r="H13" s="22">
+        <v>100</v>
+      </c>
+      <c r="I13" s="22">
+        <v>100</v>
+      </c>
       <c r="J13" s="18">
         <v>74.671000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="43"/>
       <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="22" t="e">
+        <v>35</v>
+      </c>
+      <c r="D14" s="22">
         <f>2/(1/D12+1/D13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="22" t="e">
+        <v>53.609885593895505</v>
+      </c>
+      <c r="E14" s="22">
         <f t="shared" ref="E14:H14" si="0">2/(1/E12+1/E13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="22" t="e">
+        <v>29.713581048105976</v>
+      </c>
+      <c r="F14" s="22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="22" t="e">
+        <v>12.963028721556753</v>
+      </c>
+      <c r="G14" s="22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="22" t="e">
+        <v>4.0989517099157933</v>
+      </c>
+      <c r="H14" s="22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="22" t="e">
+        <v>1.4513903366391676</v>
+      </c>
+      <c r="I14" s="22">
         <f>2/(1/I12+1/I13)</f>
-        <v>#DIV/0!</v>
+        <v>0.72734519005629461</v>
       </c>
       <c r="J14" s="18">
         <v>67.861999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
-        <v>32</v>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
+        <v>133</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="22">
+        <v>33</v>
+      </c>
+      <c r="D15" s="39">
         <v>14.521000000000001</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="39">
         <v>20</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="39">
         <v>18.63</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="39">
         <v>10.502000000000001</v>
       </c>
       <c r="H15" s="22">
@@ -1311,13 +1783,13 @@
         <v>57.533999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="22">
         <v>61.39</v>
@@ -1342,9 +1814,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="22">
         <f>2/(1/D15+1/D16)</f>
@@ -1376,19 +1848,19 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="D18" s="39">
         <v>27.763000000000002</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="39">
         <v>25.936</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="39">
         <v>12.968</v>
       </c>
       <c r="G18" s="22">
@@ -1408,9 +1880,9 @@
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="22">
         <v>72.554000000000002</v>
@@ -1435,9 +1907,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="27"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="22">
         <f>2/(1/D18+1/D19)</f>
@@ -1476,9 +1948,445 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="43"/>
+      <c r="C25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="44"/>
+      <c r="C27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="44"/>
+      <c r="C29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="43"/>
+      <c r="C36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="44"/>
+      <c r="C38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="44"/>
+      <c r="C40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="43"/>
+      <c r="C47" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="38">
+        <v>16.07</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="37">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B49" s="43"/>
+      <c r="C49" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="43"/>
+      <c r="C51" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:I2"/>
+  <mergeCells count="17">
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="K2:R2"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B15:B17"/>
@@ -1492,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R24"/>
+  <dimension ref="A3:R25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1512,16 +2420,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D4" s="4" t="s">
@@ -1551,10 +2459,10 @@
     </row>
     <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>17</v>
@@ -1577,47 +2485,47 @@
     </row>
     <row r="6" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I14" s="7"/>
@@ -1630,16 +2538,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="Q14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1648,11 +2556,11 @@
       <c r="L15">
         <v>12</v>
       </c>
-      <c r="M15" s="28" t="s">
-        <v>52</v>
+      <c r="M15" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O15" s="9">
         <v>3</v>
@@ -1664,7 +2572,7 @@
         <v>79.144000000000005</v>
       </c>
       <c r="R15" s="18">
-        <f t="shared" ref="R15:R21" si="0">2/(1/P15+1/Q15)</f>
+        <f t="shared" ref="R15:R22" si="0">2/(1/P15+1/Q15)</f>
         <v>71.884579933650144</v>
       </c>
     </row>
@@ -1674,9 +2582,9 @@
       <c r="L16">
         <v>10</v>
       </c>
-      <c r="M16" s="28"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O16" s="9">
         <v>4</v>
@@ -1698,9 +2606,9 @@
       <c r="L17">
         <v>11</v>
       </c>
-      <c r="M17" s="28"/>
+      <c r="M17" s="47"/>
       <c r="N17" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O17" s="9">
         <v>5</v>
@@ -1720,9 +2628,9 @@
       <c r="L18">
         <v>13</v>
       </c>
-      <c r="M18" s="28"/>
+      <c r="M18" s="47"/>
       <c r="N18" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O18" s="9">
         <v>6</v>
@@ -1742,9 +2650,9 @@
       <c r="L19">
         <v>14</v>
       </c>
-      <c r="M19" s="28"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O19" s="9">
         <v>7</v>
@@ -1762,96 +2670,118 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L20">
+        <v>24</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" s="9">
+        <v>4</v>
+      </c>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L21">
         <v>2</v>
       </c>
-      <c r="M20" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="18">
+      <c r="M21" s="50"/>
+      <c r="N21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="18">
         <v>59.725999999999999</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q21" s="18">
         <v>70.55</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R21" s="18">
         <f t="shared" si="0"/>
         <v>64.688343209800735</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L21">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P21" s="18">
+      <c r="M22" s="50"/>
+      <c r="N22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="18">
         <v>58.539000000000001</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q22" s="18">
         <v>68.337000000000003</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R22" s="18">
         <f t="shared" si="0"/>
         <v>63.059674690248748</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P22" s="18">
-        <v>57.991</v>
-      </c>
-      <c r="Q22" s="18">
-        <v>68.872</v>
-      </c>
-      <c r="R22" s="18">
-        <f>2/(1/P22+1/Q22)</f>
-        <v>62.964870009380199</v>
-      </c>
-    </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="50"/>
+      <c r="N23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="18">
+        <v>57.991</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>68.872</v>
+      </c>
+      <c r="R23" s="18">
+        <f>2/(1/P23+1/Q23)</f>
+        <v>62.964870009380199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L24">
         <v>4</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M24" s="14"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="18">
+        <v>56.895000000000003</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>69.686999999999998</v>
+      </c>
+      <c r="R24" s="18">
+        <f t="shared" ref="R24" si="1">2/(1/P24+1/Q24)</f>
+        <v>62.644639285206431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="M15:M19"/>
     <mergeCell ref="M12:R13"/>
-    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="M20:M24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1860,234 +2790,439 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J12"/>
+  <dimension ref="D3:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E3" sqref="E3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D3" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="3:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="4" t="s">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E3" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="4:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C5">
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D5" s="52">
         <v>10</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="31">
+      <c r="E5" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="26">
+        <v>4</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="58">
         <v>300</v>
       </c>
-      <c r="G5" s="9">
+      <c r="I5" s="26">
         <v>300</v>
       </c>
-      <c r="H5" s="18">
+      <c r="J5" s="27">
         <v>66.667000000000002</v>
       </c>
-      <c r="I5" s="18">
+      <c r="K5" s="27">
         <v>79.606999999999999</v>
       </c>
-      <c r="J5" s="18">
-        <f t="shared" ref="J5:J6" si="0">2/(1/H5+1/I5)</f>
+      <c r="L5" s="28">
+        <f t="shared" ref="L5:L6" si="0">2/(1/J5+1/K5)</f>
         <v>72.564637174070583</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D6" s="27"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="9">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="9">
         <v>512</v>
       </c>
-      <c r="H6" s="18">
+      <c r="J6" s="21">
         <v>65.936000000000007</v>
       </c>
-      <c r="I6" s="18">
+      <c r="K6" s="21">
         <v>58.843000000000004</v>
       </c>
-      <c r="J6" s="18">
+      <c r="L6" s="29">
         <f t="shared" si="0"/>
         <v>62.187900976927203</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C7">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D7" s="52">
         <v>17</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="31">
+      <c r="E7" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="54">
         <v>300</v>
       </c>
-      <c r="G7" s="9">
+      <c r="I7" s="9">
         <v>300</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="27"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="9">
+      <c r="K7" s="3"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="9">
+        <v>4</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="9">
         <v>512</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C9">
+      <c r="K8" s="3"/>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D9" s="52">
         <v>15</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="31">
+      <c r="E9" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="54">
         <v>512</v>
       </c>
-      <c r="G9" s="9">
+      <c r="I9" s="9">
         <v>300</v>
       </c>
-      <c r="H9" s="18">
+      <c r="J9" s="21">
         <v>63.014000000000003</v>
       </c>
-      <c r="I9" s="18">
+      <c r="K9" s="21">
         <v>80.046000000000006</v>
       </c>
-      <c r="J9" s="18">
-        <f t="shared" ref="J9:J10" si="1">2/(1/H9+1/I9)</f>
+      <c r="L9" s="29">
+        <f t="shared" ref="L9:L10" si="1">2/(1/J9+1/K9)</f>
         <v>70.516128114078015</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="9">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="9">
+        <v>4</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="9">
         <v>512</v>
       </c>
-      <c r="H10" s="18">
+      <c r="J10" s="21">
         <v>73.150999999999996</v>
       </c>
-      <c r="I10" s="18">
+      <c r="K10" s="21">
         <v>81.236999999999995</v>
       </c>
-      <c r="J10" s="18">
+      <c r="L10" s="29">
         <f t="shared" si="1"/>
         <v>76.982249747389687</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="31">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D11" s="52">
+        <v>18</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="54">
         <v>512</v>
       </c>
-      <c r="G11" s="9">
+      <c r="I11" s="9">
         <v>300</v>
       </c>
-      <c r="H11" s="18">
+      <c r="J11" s="21">
         <v>69.588999999999999</v>
       </c>
-      <c r="I11" s="18">
+      <c r="K11" s="21">
         <v>81.671999999999997</v>
       </c>
-      <c r="J11" s="18">
+      <c r="L11" s="29">
         <v>75.147999999999996</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <v>18</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="9">
+    <row r="12" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="52"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="31">
+        <v>4</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="31">
         <v>512</v>
       </c>
-      <c r="H12" s="18">
+      <c r="J12" s="32">
         <v>81.096000000000004</v>
       </c>
-      <c r="I12" s="18">
+      <c r="K12" s="32">
         <v>84.171000000000006</v>
       </c>
-      <c r="J12" s="18">
-        <f t="shared" ref="J12" si="2">2/(1/H12+1/I12)</f>
+      <c r="L12" s="33">
+        <f t="shared" ref="L12" si="2">2/(1/J12+1/K12)</f>
         <v>82.604892882426626</v>
       </c>
     </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D13" s="52">
+        <v>5</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="58">
+        <v>300</v>
+      </c>
+      <c r="I13" s="26">
+        <v>300</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="9">
+        <v>512</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D15" s="52">
+        <v>19</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="54">
+        <v>300</v>
+      </c>
+      <c r="I15" s="9">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="9">
+        <v>512</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D17" s="52">
+        <v>16</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="54">
+        <v>512</v>
+      </c>
+      <c r="I17" s="9">
+        <v>300</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="9">
+        <v>512</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D19" s="52">
+        <v>20</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="54">
+        <v>512</v>
+      </c>
+      <c r="I19" s="9">
+        <v>300</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="52"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="31">
+        <v>512</v>
+      </c>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="33">
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,7 +3234,7 @@
   <dimension ref="D6:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2112,13 +3247,13 @@
   <sheetData>
     <row r="6" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
-      <c r="E6" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
+      <c r="E6" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" s="1"/>
@@ -2126,16 +3261,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.2">
@@ -2143,10 +3278,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="21">
         <v>67.944999999999993</v>
@@ -2154,8 +3289,8 @@
       <c r="H8" s="21">
         <v>79.317999999999998</v>
       </c>
-      <c r="I8" s="21">
-        <f t="shared" ref="I8:I9" si="0">2/(1/G8+1/H8)</f>
+      <c r="I8" s="25">
+        <f t="shared" ref="I8:I10" si="0">2/(1/G8+1/H8)</f>
         <v>73.192336296286229</v>
       </c>
     </row>
@@ -2164,10 +3299,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="21">
         <v>66.667000000000002</v>
@@ -2185,14 +3320,21 @@
         <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="G10" s="21">
+        <v>64.84</v>
+      </c>
+      <c r="H10" s="21">
+        <v>77.09</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="0"/>
+        <v>70.436350313534845</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2219,41 +3361,41 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D3" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="D3" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="I4" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D5" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -2262,10 +3404,10 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D6" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -2274,10 +3416,10 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -2286,10 +3428,10 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D8" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -2298,10 +3440,10 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D9" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -2310,10 +3452,10 @@
     </row>
     <row r="10" spans="4:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D10" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -2322,10 +3464,10 @@
     </row>
     <row r="11" spans="4:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D11" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -2345,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2359,16 +3501,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D5" s="4" t="s">
@@ -2393,12 +3535,12 @@
         <v>6</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="4:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D6" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
@@ -2419,33 +3561,33 @@
         <v>15</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="4:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D7" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/论文用到的实验数据.xlsx
+++ b/论文用到的实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Default Box的尺度大小" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="169">
   <si>
     <t>实验组名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>k值组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>召回率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +265,6 @@
   </si>
   <si>
     <t>cocoICDAR13SCUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据扩增的影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,20 +320,6 @@
     <t>single7</t>
   </si>
   <si>
-    <t>multi3_6_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multi3_6_12</t>
-  </si>
-  <si>
-    <t>multi3_6_13</t>
-  </si>
-  <si>
-    <t>multi3_6_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[3, 6, 10]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,10 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实验组名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4, 8</t>
   </si>
   <si>
@@ -501,26 +475,6 @@
   </si>
   <si>
     <t>误检率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrondTruth分布比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All layers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -568,6 +522,186 @@
   <si>
     <t>第1层: 10~20
 第2~6层: 20~90均匀变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺度大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同尺度下模型的性能对比（%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoICDAR13SCUT</t>
+  </si>
+  <si>
+    <t>[5,10], [10, 70]</t>
+  </si>
+  <si>
+    <t>150k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nostep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率影响（总batch_size为8， 迭代次数为150k）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iter 1~150k: lr = 10^(-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iter 1~120k: lr = 10^(-4)
+Iter 120k-150k: lr = 10^(-5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_120k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_140k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iter 1~120k: lr = 10^(-4)
+Iter 140k-150k: lr = 10^(-5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总迭代次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召回率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏检率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误检率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召回率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一层anchor覆盖太集中了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv4_3更细，应该覆盖更多更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均摊+逐层递减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Boxes覆盖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filed-based</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empirical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi3_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi4_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi3_6_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi2_4_8_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据扩充和不同训练尺度的影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,18 +763,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -878,11 +1012,50 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -890,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -905,7 +1078,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,7 +1112,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,153 +1119,220 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,239 +1614,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S51"/>
+  <dimension ref="A2:T102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView showGridLines="0" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="9" width="8.375" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="6.5" customWidth="1"/>
-    <col min="15" max="18" width="8.375" customWidth="1"/>
-    <col min="19" max="19" width="9" style="67"/>
+    <col min="2" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="15" width="7.375" customWidth="1"/>
+    <col min="16" max="18" width="8.375" customWidth="1"/>
+    <col min="19" max="19" width="8.375" style="33" customWidth="1"/>
+    <col min="20" max="20" width="7.5" customWidth="1"/>
+    <col min="21" max="21" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L3" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="J3" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="68"/>
+      <c r="S3" s="34"/>
     </row>
     <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="J4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="69"/>
+      <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="71" t="s">
+      <c r="L5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="71" t="s">
+      <c r="N5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="71" t="s">
+      <c r="O5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="71" t="s">
+      <c r="P5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="72" t="s">
+      <c r="Q5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="72" t="s">
+      <c r="R5" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" s="71" t="s">
+      <c r="L6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="71" t="s">
+      <c r="O6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="71" t="s">
+      <c r="P6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="72" t="s">
+      <c r="Q6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="72" t="s">
+      <c r="R6" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="38" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1621,41 +1872,43 @@
       <c r="I8" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -1663,734 +1916,2157 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D13" s="29">
         <v>43.744</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E13" s="29">
         <v>17.991</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F13" s="29">
         <v>7.032</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G13" s="20">
         <v>2.1</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H13" s="20">
         <v>0.73099999999999998</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I13" s="20">
         <v>0.36499999999999999</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J13" s="19">
         <v>62.192</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="4" t="s">
+      <c r="B14" s="57"/>
+      <c r="C14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D14" s="20">
         <v>69.221999999999994</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E14" s="20">
         <v>85.281000000000006</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F14" s="20">
         <v>82.796000000000006</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G14" s="20">
         <v>85.185000000000002</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H14" s="20">
         <v>100</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I14" s="20">
         <v>100</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J14" s="19">
         <v>74.671000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="43"/>
-      <c r="C14" s="4" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="22">
-        <f>2/(1/D12+1/D13)</f>
+      <c r="D15" s="20">
+        <f>2/(1/D13+1/D14)</f>
         <v>53.609885593895505</v>
       </c>
-      <c r="E14" s="22">
-        <f t="shared" ref="E14:H14" si="0">2/(1/E12+1/E13)</f>
+      <c r="E15" s="20">
+        <f t="shared" ref="E15:H15" si="0">2/(1/E13+1/E14)</f>
         <v>29.713581048105976</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F15" s="20">
         <f t="shared" si="0"/>
         <v>12.963028721556753</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G15" s="20">
         <f t="shared" si="0"/>
         <v>4.0989517099157933</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H15" s="20">
         <f t="shared" si="0"/>
         <v>1.4513903366391676</v>
       </c>
-      <c r="I14" s="22">
-        <f>2/(1/I12+1/I13)</f>
+      <c r="I15" s="20">
+        <f>2/(1/I13+1/I14)</f>
         <v>0.72734519005629461</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J15" s="19">
         <v>67.861999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D17" s="29">
         <v>14.521000000000001</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E17" s="29">
         <v>20</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F17" s="29">
         <v>18.63</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G17" s="29">
         <v>10.502000000000001</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H17" s="20">
         <v>5.8449999999999998</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I17" s="20">
         <v>1.0960000000000001</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J17" s="19">
         <v>57.533999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>6</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="4" t="s">
+      <c r="B18" s="57"/>
+      <c r="C18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D18" s="20">
         <v>61.39</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E18" s="20">
         <v>75.516999999999996</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F18" s="20">
         <v>79.069999999999993</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G18" s="20">
         <v>74.194000000000003</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H18" s="20">
         <v>73.563000000000002</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I18" s="20">
         <v>66.667000000000002</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J18" s="19">
         <v>70.549000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="43"/>
-      <c r="C17" s="4" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="22">
-        <f>2/(1/D15+1/D16)</f>
+      <c r="D19" s="20">
+        <f>2/(1/D17+1/D18)</f>
         <v>23.48656163138412</v>
       </c>
-      <c r="E17" s="22">
-        <f t="shared" ref="E17:I17" si="1">2/(1/E15+1/E16)</f>
+      <c r="E19" s="20">
+        <f t="shared" ref="E19:I19" si="1">2/(1/E17+1/E18)</f>
         <v>31.624527571008297</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F19" s="20">
         <f t="shared" si="1"/>
         <v>30.155048106448312</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G19" s="20">
         <f t="shared" si="1"/>
         <v>18.399579389817703</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H19" s="20">
         <f t="shared" si="1"/>
         <v>10.829531911142453</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I19" s="20">
         <f t="shared" si="1"/>
         <v>2.1565465519531313</v>
       </c>
-      <c r="J17" s="18">
-        <f>2/(1/J15+1/J16)</f>
+      <c r="J19" s="19">
+        <f>2/(1/J17+1/J18)</f>
         <v>63.380248214048713</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D21" s="29">
         <v>27.763000000000002</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E21" s="29">
         <v>25.936</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F21" s="29">
         <v>12.968</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G21" s="20">
         <v>3.379</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H21" s="20">
         <v>1.9179999999999999</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I21" s="20">
         <v>0.54800000000000004</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J21" s="20">
         <v>64.658000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="4" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D22" s="20">
         <v>72.554000000000002</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E22" s="20">
         <v>84.024000000000001</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F22" s="20">
         <v>86.584999999999994</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G22" s="20">
         <v>80.435000000000002</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H22" s="20">
         <v>84</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I22" s="20">
         <v>85.713999999999999</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J22" s="20">
         <v>79.283000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="43"/>
-      <c r="C20" s="4" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="22">
-        <f>2/(1/D18+1/D19)</f>
+      <c r="D23" s="20">
+        <f>2/(1/D21+1/D22)</f>
         <v>40.159029915168915</v>
       </c>
-      <c r="E20" s="22">
-        <f t="shared" ref="E20" si="2">2/(1/E18+1/E19)</f>
+      <c r="E23" s="20">
+        <f t="shared" ref="E23" si="2">2/(1/E21+1/E22)</f>
         <v>39.637076464168786</v>
       </c>
-      <c r="F20" s="22">
-        <f t="shared" ref="F20" si="3">2/(1/F18+1/F19)</f>
+      <c r="F23" s="20">
+        <f t="shared" ref="F23" si="3">2/(1/F21+1/F22)</f>
         <v>22.557517704137492</v>
       </c>
-      <c r="G20" s="22">
-        <f t="shared" ref="G20" si="4">2/(1/G18+1/G19)</f>
+      <c r="G23" s="20">
+        <f t="shared" ref="G23" si="4">2/(1/G21+1/G22)</f>
         <v>6.4855481184527655</v>
       </c>
-      <c r="H20" s="22">
-        <f t="shared" ref="H20" si="5">2/(1/H18+1/H19)</f>
+      <c r="H23" s="20">
+        <f t="shared" ref="H23" si="5">2/(1/H21+1/H22)</f>
         <v>3.7503666286459181</v>
       </c>
-      <c r="I20" s="22">
-        <f>2/(1/I18+1/I19)</f>
+      <c r="I23" s="20">
+        <f>2/(1/I21+1/I22)</f>
         <v>1.0890373976953933</v>
       </c>
-      <c r="J20" s="19">
-        <f>2/(1/J18+1/J19)</f>
+      <c r="J23" s="21">
+        <f>2/(1/J21+1/J22)</f>
         <v>71.227519803252719</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="41" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="36" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D26" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E26" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F26" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G26" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H26" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I26" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="42" t="s">
+      <c r="L26" s="78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="20">
+        <v>82.465999999999994</v>
+      </c>
+      <c r="E27" s="20">
+        <v>38.173999999999999</v>
+      </c>
+      <c r="F27" s="20">
+        <v>16.986000000000001</v>
+      </c>
+      <c r="G27" s="20">
+        <v>8.4930000000000003</v>
+      </c>
+      <c r="H27" s="20">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I27" s="20">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="J27" s="17">
+        <v>91.415999999999997</v>
+      </c>
+      <c r="K27" s="77">
+        <f>SUM(D27:I27)</f>
+        <v>151.964</v>
+      </c>
+      <c r="L27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="20">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E28" s="20">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H28" s="20">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I28" s="20">
+        <v>1.359</v>
+      </c>
+      <c r="J28" s="17">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K28" s="77">
+        <f t="shared" ref="K28:K32" si="6">SUM(D28:I28)</f>
+        <v>2.2439999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="20">
+        <v>42.283000000000001</v>
+      </c>
+      <c r="E29" s="20">
+        <v>54.247</v>
+      </c>
+      <c r="F29" s="20">
+        <v>43.287999999999997</v>
+      </c>
+      <c r="G29" s="20">
+        <v>25.753</v>
+      </c>
+      <c r="H29" s="20">
+        <v>14.064</v>
+      </c>
+      <c r="I29" s="20">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="J29" s="17">
+        <v>90.685000000000002</v>
+      </c>
+      <c r="K29" s="77">
+        <f>SUM(D29:J29)</f>
+        <v>273.24199999999996</v>
+      </c>
+      <c r="L29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="20">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="H30" s="20">
+        <v>1.224</v>
+      </c>
+      <c r="I30" s="20">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="J30" s="17">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K30" s="77">
+        <f>SUM(D30:J30)</f>
+        <v>4.8370000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="20">
+        <v>63.195999999999998</v>
+      </c>
+      <c r="E31" s="20">
+        <v>56.073</v>
+      </c>
+      <c r="F31" s="20">
+        <v>29.68</v>
+      </c>
+      <c r="G31" s="20">
+        <v>12.42</v>
+      </c>
+      <c r="H31" s="20">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="I31" s="20">
+        <v>2.1</v>
+      </c>
+      <c r="J31" s="17">
+        <v>92.146000000000001</v>
+      </c>
+      <c r="K31" s="77">
+        <f t="shared" si="6"/>
+        <v>170.136</v>
+      </c>
+      <c r="L31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="20">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0.122</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="H32" s="20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I32" s="20">
+        <v>1.645</v>
+      </c>
+      <c r="J32" s="17">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K32" s="77">
+        <f t="shared" si="6"/>
+        <v>3.0019999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="54"/>
+      <c r="C39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="55"/>
+      <c r="C41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="55"/>
+      <c r="C43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H46" s="33"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+      <c r="C55" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+      <c r="C56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+      <c r="C57" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="43"/>
-      <c r="C25" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="E57" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="82">
+        <v>82.465999999999994</v>
+      </c>
+      <c r="F58" s="82">
+        <v>38.173999999999999</v>
+      </c>
+      <c r="G58" s="82">
+        <v>16.986000000000001</v>
+      </c>
+      <c r="H58" s="82">
+        <v>8.4930000000000003</v>
+      </c>
+      <c r="I58" s="82">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="J58" s="82">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="K58" s="84">
+        <v>91.415999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="83">
+        <v>43.744</v>
+      </c>
+      <c r="F59" s="83">
+        <v>17.991</v>
+      </c>
+      <c r="G59" s="83">
+        <v>7.032</v>
+      </c>
+      <c r="H59" s="82">
+        <v>2.1</v>
+      </c>
+      <c r="I59" s="82">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="J59" s="82">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K59" s="84">
+        <v>62.192</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>7</v>
+      </c>
+      <c r="C60" s="81"/>
+      <c r="D60" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="82">
+        <v>69.221999999999994</v>
+      </c>
+      <c r="F60" s="82">
+        <v>85.281000000000006</v>
+      </c>
+      <c r="G60" s="82">
+        <v>82.796000000000006</v>
+      </c>
+      <c r="H60" s="82">
+        <v>85.185000000000002</v>
+      </c>
+      <c r="I60" s="82">
+        <v>100</v>
+      </c>
+      <c r="J60" s="82">
+        <v>100</v>
+      </c>
+      <c r="K60" s="84">
+        <v>74.671000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="82">
+        <f>2/(1/E59+1/E60)</f>
+        <v>53.609885593895505</v>
+      </c>
+      <c r="F61" s="82">
+        <f t="shared" ref="F61:I61" si="7">2/(1/F59+1/F60)</f>
+        <v>29.713581048105976</v>
+      </c>
+      <c r="G61" s="82">
+        <f t="shared" si="7"/>
+        <v>12.963028721556753</v>
+      </c>
+      <c r="H61" s="82">
+        <f t="shared" si="7"/>
+        <v>4.0989517099157933</v>
+      </c>
+      <c r="I61" s="82">
+        <f t="shared" si="7"/>
+        <v>1.4513903366391676</v>
+      </c>
+      <c r="J61" s="82">
+        <f>2/(1/J59+1/J60)</f>
+        <v>0.72734519005629461</v>
+      </c>
+      <c r="K61" s="84">
+        <v>67.861999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="82">
+        <f>E58-E59</f>
+        <v>38.721999999999994</v>
+      </c>
+      <c r="F62" s="82">
+        <f t="shared" ref="F62:K62" si="8">F58-F59</f>
+        <v>20.183</v>
+      </c>
+      <c r="G62" s="82">
+        <f t="shared" si="8"/>
+        <v>9.9540000000000006</v>
+      </c>
+      <c r="H62" s="82">
+        <f t="shared" si="8"/>
+        <v>6.3930000000000007</v>
+      </c>
+      <c r="I62" s="82">
+        <f t="shared" si="8"/>
+        <v>3.3790000000000004</v>
+      </c>
+      <c r="J62" s="82">
+        <f t="shared" si="8"/>
+        <v>1.37</v>
+      </c>
+      <c r="K62" s="82">
+        <f t="shared" si="8"/>
+        <v>29.223999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="82">
+        <f>100-E60</f>
+        <v>30.778000000000006</v>
+      </c>
+      <c r="F63" s="82">
+        <f t="shared" ref="F63:K63" si="9">100-F60</f>
+        <v>14.718999999999994</v>
+      </c>
+      <c r="G63" s="82">
+        <f t="shared" si="9"/>
+        <v>17.203999999999994</v>
+      </c>
+      <c r="H63" s="82">
+        <f t="shared" si="9"/>
+        <v>14.814999999999998</v>
+      </c>
+      <c r="I63" s="82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="82">
+        <f t="shared" si="9"/>
+        <v>25.328999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+      <c r="C64" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="44"/>
-      <c r="C27" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="E64" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" s="84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="82">
+        <v>42.283000000000001</v>
+      </c>
+      <c r="F65" s="82">
+        <v>54.247</v>
+      </c>
+      <c r="G65" s="82">
+        <v>43.287999999999997</v>
+      </c>
+      <c r="H65" s="82">
+        <v>25.753</v>
+      </c>
+      <c r="I65" s="82">
+        <v>14.064</v>
+      </c>
+      <c r="J65" s="82">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="K65" s="84">
+        <v>90.685000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="83">
+        <v>14.521000000000001</v>
+      </c>
+      <c r="F66" s="83">
+        <v>20</v>
+      </c>
+      <c r="G66" s="83">
+        <v>18.63</v>
+      </c>
+      <c r="H66" s="83">
+        <v>10.502000000000001</v>
+      </c>
+      <c r="I66" s="82">
+        <v>5.8449999999999998</v>
+      </c>
+      <c r="J66" s="82">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="K66" s="84">
+        <v>57.533999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <v>6</v>
+      </c>
+      <c r="C67" s="81"/>
+      <c r="D67" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="82">
+        <v>61.39</v>
+      </c>
+      <c r="F67" s="82">
+        <v>75.516999999999996</v>
+      </c>
+      <c r="G67" s="82">
+        <v>79.069999999999993</v>
+      </c>
+      <c r="H67" s="82">
+        <v>74.194000000000003</v>
+      </c>
+      <c r="I67" s="82">
+        <v>73.563000000000002</v>
+      </c>
+      <c r="J67" s="82">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="K67" s="84">
+        <v>70.549000000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="82">
+        <f>2/(1/E66+1/E67)</f>
+        <v>23.48656163138412</v>
+      </c>
+      <c r="F68" s="82">
+        <f>2/(1/F66+1/F67)</f>
+        <v>31.624527571008297</v>
+      </c>
+      <c r="G68" s="82">
+        <f>2/(1/G66+1/G67)</f>
+        <v>30.155048106448312</v>
+      </c>
+      <c r="H68" s="82">
+        <f>2/(1/H66+1/H67)</f>
+        <v>18.399579389817703</v>
+      </c>
+      <c r="I68" s="82">
+        <f>2/(1/I66+1/I67)</f>
+        <v>10.829531911142453</v>
+      </c>
+      <c r="J68" s="82">
+        <f>2/(1/J66+1/J67)</f>
+        <v>2.1565465519531313</v>
+      </c>
+      <c r="K68" s="84">
+        <f>2/(1/K66+1/K67)</f>
+        <v>63.380248214048713</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="82">
+        <f>E65-E66</f>
+        <v>27.762</v>
+      </c>
+      <c r="F69" s="82">
+        <f t="shared" ref="F69:K69" si="10">F65-F66</f>
+        <v>34.247</v>
+      </c>
+      <c r="G69" s="82">
+        <f t="shared" si="10"/>
+        <v>24.657999999999998</v>
+      </c>
+      <c r="H69" s="82">
+        <f t="shared" si="10"/>
+        <v>15.250999999999999</v>
+      </c>
+      <c r="I69" s="82">
+        <f t="shared" si="10"/>
+        <v>8.2190000000000012</v>
+      </c>
+      <c r="J69" s="82">
+        <f t="shared" si="10"/>
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="K69" s="82">
+        <f t="shared" si="10"/>
+        <v>33.151000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="82">
+        <f>100-E67</f>
+        <v>38.61</v>
+      </c>
+      <c r="F70" s="82">
+        <f t="shared" ref="F70:K70" si="11">100-F67</f>
+        <v>24.483000000000004</v>
+      </c>
+      <c r="G70" s="82">
+        <f t="shared" si="11"/>
+        <v>20.930000000000007</v>
+      </c>
+      <c r="H70" s="82">
+        <f t="shared" si="11"/>
+        <v>25.805999999999997</v>
+      </c>
+      <c r="I70" s="82">
+        <f t="shared" si="11"/>
+        <v>26.436999999999998</v>
+      </c>
+      <c r="J70" s="82">
+        <f t="shared" si="11"/>
+        <v>33.332999999999998</v>
+      </c>
+      <c r="K70" s="82">
+        <f t="shared" si="11"/>
+        <v>29.450999999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+      <c r="C71" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="44"/>
-      <c r="C29" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
+      <c r="E71" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" s="84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" s="82">
+        <v>63.195999999999998</v>
+      </c>
+      <c r="F72" s="82">
+        <v>56.073</v>
+      </c>
+      <c r="G72" s="82">
+        <v>29.68</v>
+      </c>
+      <c r="H72" s="82">
+        <v>12.42</v>
+      </c>
+      <c r="I72" s="82">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="J72" s="82">
+        <v>2.1</v>
+      </c>
+      <c r="K72" s="84">
+        <v>92.146000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73" s="83">
+        <v>27.763000000000002</v>
+      </c>
+      <c r="F73" s="83">
+        <v>25.936</v>
+      </c>
+      <c r="G73" s="83">
+        <v>12.968</v>
+      </c>
+      <c r="H73" s="82">
+        <v>3.379</v>
+      </c>
+      <c r="I73" s="82">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="J73" s="82">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="K73" s="82">
+        <v>64.658000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="1">
+        <v>5</v>
+      </c>
+      <c r="C74" s="81"/>
+      <c r="D74" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="82">
+        <v>72.554000000000002</v>
+      </c>
+      <c r="F74" s="82">
+        <v>84.024000000000001</v>
+      </c>
+      <c r="G74" s="82">
+        <v>86.584999999999994</v>
+      </c>
+      <c r="H74" s="82">
+        <v>80.435000000000002</v>
+      </c>
+      <c r="I74" s="82">
+        <v>84</v>
+      </c>
+      <c r="J74" s="82">
+        <v>85.713999999999999</v>
+      </c>
+      <c r="K74" s="82">
+        <v>79.283000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="82">
+        <f>2/(1/E73+1/E74)</f>
+        <v>40.159029915168915</v>
+      </c>
+      <c r="F75" s="82">
+        <f>2/(1/F73+1/F74)</f>
+        <v>39.637076464168786</v>
+      </c>
+      <c r="G75" s="82">
+        <f>2/(1/G73+1/G74)</f>
+        <v>22.557517704137492</v>
+      </c>
+      <c r="H75" s="82">
+        <f>2/(1/H73+1/H74)</f>
+        <v>6.4855481184527655</v>
+      </c>
+      <c r="I75" s="82">
+        <f>2/(1/I73+1/I74)</f>
+        <v>3.7503666286459181</v>
+      </c>
+      <c r="J75" s="82">
+        <f>2/(1/J73+1/J74)</f>
+        <v>1.0890373976953933</v>
+      </c>
+      <c r="K75" s="86">
+        <f>2/(1/K73+1/K74)</f>
+        <v>71.227519803252719</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="82">
+        <f>E72-E73</f>
+        <v>35.432999999999993</v>
+      </c>
+      <c r="F76" s="82">
+        <f t="shared" ref="F76:K76" si="12">F72-F73</f>
+        <v>30.137</v>
+      </c>
+      <c r="G76" s="82">
+        <f t="shared" si="12"/>
+        <v>16.712</v>
+      </c>
+      <c r="H76" s="82">
+        <f t="shared" si="12"/>
+        <v>9.0410000000000004</v>
+      </c>
+      <c r="I76" s="82">
+        <f t="shared" si="12"/>
+        <v>4.7489999999999997</v>
+      </c>
+      <c r="J76" s="82">
+        <f t="shared" si="12"/>
+        <v>1.552</v>
+      </c>
+      <c r="K76" s="82">
+        <f t="shared" si="12"/>
+        <v>27.488</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E77" s="82">
+        <f>100-E74</f>
+        <v>27.445999999999998</v>
+      </c>
+      <c r="F77" s="82">
+        <f t="shared" ref="F77:K77" si="13">100-F74</f>
+        <v>15.975999999999999</v>
+      </c>
+      <c r="G77" s="82">
+        <f t="shared" si="13"/>
+        <v>13.415000000000006</v>
+      </c>
+      <c r="H77" s="82">
+        <f t="shared" si="13"/>
+        <v>19.564999999999998</v>
+      </c>
+      <c r="I77" s="82">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="J77" s="82">
+        <f t="shared" si="13"/>
+        <v>14.286000000000001</v>
+      </c>
+      <c r="K77" s="82">
+        <f t="shared" si="13"/>
+        <v>20.716999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="12:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="M81" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="N81" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="O81" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="P81" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="Q81" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="R81" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="S81" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="T81" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="43"/>
-      <c r="C36" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="44"/>
-      <c r="C38" s="4" t="s">
+    <row r="82" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L82" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N82" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O82" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="P82" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q82" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="R82" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="S82" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="T82" s="80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L83" s="81"/>
+      <c r="M83" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="N83" s="82">
+        <v>82.465999999999994</v>
+      </c>
+      <c r="O83" s="82">
+        <v>38.173999999999999</v>
+      </c>
+      <c r="P83" s="82">
+        <v>16.986000000000001</v>
+      </c>
+      <c r="Q83" s="82">
+        <v>8.4930000000000003</v>
+      </c>
+      <c r="R83" s="82">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="S83" s="82">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="T83" s="84">
+        <v>91.415999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L84" s="81"/>
+      <c r="M84" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N84" s="83">
+        <v>43.744</v>
+      </c>
+      <c r="O84" s="83">
+        <v>17.991</v>
+      </c>
+      <c r="P84" s="83">
+        <v>7.032</v>
+      </c>
+      <c r="Q84" s="82">
+        <v>2.1</v>
+      </c>
+      <c r="R84" s="82">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="S84" s="82">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="T84" s="84">
+        <v>62.192</v>
+      </c>
+    </row>
+    <row r="85" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L85" s="81"/>
+      <c r="M85" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="44"/>
-      <c r="C40" s="4" t="s">
+      <c r="N85" s="82">
+        <v>69.221999999999994</v>
+      </c>
+      <c r="O85" s="82">
+        <v>85.281000000000006</v>
+      </c>
+      <c r="P85" s="82">
+        <v>82.796000000000006</v>
+      </c>
+      <c r="Q85" s="82">
+        <v>85.185000000000002</v>
+      </c>
+      <c r="R85" s="82">
+        <v>100</v>
+      </c>
+      <c r="S85" s="82">
+        <v>100</v>
+      </c>
+      <c r="T85" s="84">
+        <v>74.671000000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L86" s="81"/>
+      <c r="M86" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N86" s="82">
+        <f>2/(1/N84+1/N85)</f>
+        <v>53.609885593895505</v>
+      </c>
+      <c r="O86" s="82">
+        <f t="shared" ref="O86:R86" si="14">2/(1/O84+1/O85)</f>
+        <v>29.713581048105976</v>
+      </c>
+      <c r="P86" s="82">
+        <f t="shared" si="14"/>
+        <v>12.963028721556753</v>
+      </c>
+      <c r="Q86" s="82">
+        <f t="shared" si="14"/>
+        <v>4.0989517099157933</v>
+      </c>
+      <c r="R86" s="82">
+        <f t="shared" si="14"/>
+        <v>1.4513903366391676</v>
+      </c>
+      <c r="S86" s="82">
+        <f>2/(1/S84+1/S85)</f>
+        <v>0.72734519005629461</v>
+      </c>
+      <c r="T86" s="84">
+        <v>67.861999999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L87" s="81"/>
+      <c r="M87" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N87" s="82">
+        <f>N83-N84</f>
+        <v>38.721999999999994</v>
+      </c>
+      <c r="O87" s="82">
+        <f t="shared" ref="O87:T87" si="15">O83-O84</f>
+        <v>20.183</v>
+      </c>
+      <c r="P87" s="82">
+        <f t="shared" si="15"/>
+        <v>9.9540000000000006</v>
+      </c>
+      <c r="Q87" s="82">
+        <f t="shared" si="15"/>
+        <v>6.3930000000000007</v>
+      </c>
+      <c r="R87" s="82">
+        <f t="shared" si="15"/>
+        <v>3.3790000000000004</v>
+      </c>
+      <c r="S87" s="82">
+        <f t="shared" si="15"/>
+        <v>1.37</v>
+      </c>
+      <c r="T87" s="82">
+        <f t="shared" si="15"/>
+        <v>29.223999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L88" s="85"/>
+      <c r="M88" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="N88" s="82">
+        <f>100-N85</f>
+        <v>30.778000000000006</v>
+      </c>
+      <c r="O88" s="82">
+        <f t="shared" ref="O88:T88" si="16">100-O85</f>
+        <v>14.718999999999994</v>
+      </c>
+      <c r="P88" s="82">
+        <f t="shared" si="16"/>
+        <v>17.203999999999994</v>
+      </c>
+      <c r="Q88" s="82">
+        <f t="shared" si="16"/>
+        <v>14.814999999999998</v>
+      </c>
+      <c r="R88" s="82">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="82">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="82">
+        <f t="shared" si="16"/>
+        <v>25.328999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L89" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N89" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="O89" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="P89" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="R89" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="S89" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="T89" s="84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L90" s="81"/>
+      <c r="M90" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="N90" s="82">
+        <v>42.283000000000001</v>
+      </c>
+      <c r="O90" s="82">
+        <v>54.247</v>
+      </c>
+      <c r="P90" s="82">
+        <v>43.287999999999997</v>
+      </c>
+      <c r="Q90" s="82">
+        <v>25.753</v>
+      </c>
+      <c r="R90" s="82">
+        <v>14.064</v>
+      </c>
+      <c r="S90" s="82">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="T90" s="84">
+        <v>90.685000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L91" s="81"/>
+      <c r="M91" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N91" s="83">
+        <v>14.521000000000001</v>
+      </c>
+      <c r="O91" s="83">
+        <v>20</v>
+      </c>
+      <c r="P91" s="83">
+        <v>18.63</v>
+      </c>
+      <c r="Q91" s="83">
+        <v>10.502000000000001</v>
+      </c>
+      <c r="R91" s="82">
+        <v>5.8449999999999998</v>
+      </c>
+      <c r="S91" s="82">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="T91" s="84">
+        <v>57.533999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L92" s="81"/>
+      <c r="M92" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="41" t="s">
+      <c r="N92" s="82">
+        <v>61.39</v>
+      </c>
+      <c r="O92" s="82">
+        <v>75.516999999999996</v>
+      </c>
+      <c r="P92" s="82">
+        <v>79.069999999999993</v>
+      </c>
+      <c r="Q92" s="82">
+        <v>74.194000000000003</v>
+      </c>
+      <c r="R92" s="82">
+        <v>73.563000000000002</v>
+      </c>
+      <c r="S92" s="82">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="T92" s="84">
+        <v>70.549000000000007</v>
+      </c>
+    </row>
+    <row r="93" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L93" s="81"/>
+      <c r="M93" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N93" s="82">
+        <f>2/(1/N91+1/N92)</f>
+        <v>23.48656163138412</v>
+      </c>
+      <c r="O93" s="82">
+        <f>2/(1/O91+1/O92)</f>
+        <v>31.624527571008297</v>
+      </c>
+      <c r="P93" s="82">
+        <f>2/(1/P91+1/P92)</f>
+        <v>30.155048106448312</v>
+      </c>
+      <c r="Q93" s="82">
+        <f>2/(1/Q91+1/Q92)</f>
+        <v>18.399579389817703</v>
+      </c>
+      <c r="R93" s="82">
+        <f>2/(1/R91+1/R92)</f>
+        <v>10.829531911142453</v>
+      </c>
+      <c r="S93" s="82">
+        <f>2/(1/S91+1/S92)</f>
+        <v>2.1565465519531313</v>
+      </c>
+      <c r="T93" s="84">
+        <f>2/(1/T91+1/T92)</f>
+        <v>63.380248214048713</v>
+      </c>
+    </row>
+    <row r="94" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L94" s="81"/>
+      <c r="M94" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N94" s="82">
+        <f>N90-N91</f>
+        <v>27.762</v>
+      </c>
+      <c r="O94" s="82">
+        <f t="shared" ref="O94:T94" si="17">O90-O91</f>
+        <v>34.247</v>
+      </c>
+      <c r="P94" s="82">
+        <f t="shared" si="17"/>
+        <v>24.657999999999998</v>
+      </c>
+      <c r="Q94" s="82">
+        <f t="shared" si="17"/>
+        <v>15.250999999999999</v>
+      </c>
+      <c r="R94" s="82">
+        <f t="shared" si="17"/>
+        <v>8.2190000000000012</v>
+      </c>
+      <c r="S94" s="82">
+        <f t="shared" si="17"/>
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="T94" s="82">
+        <f t="shared" si="17"/>
+        <v>33.151000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L95" s="85"/>
+      <c r="M95" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="N95" s="82">
+        <f>100-N92</f>
+        <v>38.61</v>
+      </c>
+      <c r="O95" s="82">
+        <f t="shared" ref="O95:T95" si="18">100-O92</f>
+        <v>24.483000000000004</v>
+      </c>
+      <c r="P95" s="82">
+        <f t="shared" si="18"/>
+        <v>20.930000000000007</v>
+      </c>
+      <c r="Q95" s="82">
+        <f t="shared" si="18"/>
+        <v>25.805999999999997</v>
+      </c>
+      <c r="R95" s="82">
+        <f t="shared" si="18"/>
+        <v>26.436999999999998</v>
+      </c>
+      <c r="S95" s="82">
+        <f t="shared" si="18"/>
+        <v>33.332999999999998</v>
+      </c>
+      <c r="T95" s="82">
+        <f t="shared" si="18"/>
+        <v>29.450999999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L96" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="N96" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="O96" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P96" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q96" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R96" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S96" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="T96" s="84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L97" s="81"/>
+      <c r="M97" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="N97" s="82">
+        <v>63.195999999999998</v>
+      </c>
+      <c r="O97" s="82">
+        <v>56.073</v>
+      </c>
+      <c r="P97" s="82">
+        <v>29.68</v>
+      </c>
+      <c r="Q97" s="82">
+        <v>12.42</v>
+      </c>
+      <c r="R97" s="82">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="S97" s="82">
+        <v>2.1</v>
+      </c>
+      <c r="T97" s="84">
+        <v>92.146000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L98" s="81"/>
+      <c r="M98" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="N98" s="83">
+        <v>27.763000000000002</v>
+      </c>
+      <c r="O98" s="83">
+        <v>25.936</v>
+      </c>
+      <c r="P98" s="83">
+        <v>12.968</v>
+      </c>
+      <c r="Q98" s="82">
+        <v>3.379</v>
+      </c>
+      <c r="R98" s="82">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="S98" s="82">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="T98" s="82">
+        <v>64.658000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L99" s="81"/>
+      <c r="M99" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N99" s="82">
+        <v>72.554000000000002</v>
+      </c>
+      <c r="O99" s="82">
+        <v>84.024000000000001</v>
+      </c>
+      <c r="P99" s="82">
+        <v>86.584999999999994</v>
+      </c>
+      <c r="Q99" s="82">
+        <v>80.435000000000002</v>
+      </c>
+      <c r="R99" s="82">
+        <v>84</v>
+      </c>
+      <c r="S99" s="82">
+        <v>85.713999999999999</v>
+      </c>
+      <c r="T99" s="82">
+        <v>79.283000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L100" s="81"/>
+      <c r="M100" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N100" s="82">
+        <f>2/(1/N98+1/N99)</f>
+        <v>40.159029915168915</v>
+      </c>
+      <c r="O100" s="82">
+        <f>2/(1/O98+1/O99)</f>
+        <v>39.637076464168786</v>
+      </c>
+      <c r="P100" s="82">
+        <f>2/(1/P98+1/P99)</f>
+        <v>22.557517704137492</v>
+      </c>
+      <c r="Q100" s="82">
+        <f>2/(1/Q98+1/Q99)</f>
+        <v>6.4855481184527655</v>
+      </c>
+      <c r="R100" s="82">
+        <f>2/(1/R98+1/R99)</f>
+        <v>3.7503666286459181</v>
+      </c>
+      <c r="S100" s="82">
+        <f>2/(1/S98+1/S99)</f>
+        <v>1.0890373976953933</v>
+      </c>
+      <c r="T100" s="86">
+        <f>2/(1/T98+1/T99)</f>
+        <v>71.227519803252719</v>
+      </c>
+    </row>
+    <row r="101" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L101" s="81"/>
+      <c r="M101" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N101" s="82">
+        <f>N97-N98</f>
+        <v>35.432999999999993</v>
+      </c>
+      <c r="O101" s="82">
+        <f t="shared" ref="O101:T101" si="19">O97-O98</f>
+        <v>30.137</v>
+      </c>
+      <c r="P101" s="82">
+        <f t="shared" si="19"/>
+        <v>16.712</v>
+      </c>
+      <c r="Q101" s="82">
+        <f t="shared" si="19"/>
+        <v>9.0410000000000004</v>
+      </c>
+      <c r="R101" s="82">
+        <f t="shared" si="19"/>
+        <v>4.7489999999999997</v>
+      </c>
+      <c r="S101" s="82">
+        <f t="shared" si="19"/>
+        <v>1.552</v>
+      </c>
+      <c r="T101" s="82">
+        <f t="shared" si="19"/>
+        <v>27.488</v>
+      </c>
+    </row>
+    <row r="102" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L102" s="85"/>
+      <c r="M102" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="N102" s="82">
+        <f>100-N99</f>
+        <v>27.445999999999998</v>
+      </c>
+      <c r="O102" s="82">
+        <f t="shared" ref="O102:T102" si="20">100-O99</f>
+        <v>15.975999999999999</v>
+      </c>
+      <c r="P102" s="82">
+        <f t="shared" si="20"/>
+        <v>13.415000000000006</v>
+      </c>
+      <c r="Q102" s="82">
+        <f t="shared" si="20"/>
+        <v>19.564999999999998</v>
+      </c>
+      <c r="R102" s="82">
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="43"/>
-      <c r="C47" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="38">
-        <v>16.07</v>
-      </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="37">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="43"/>
-      <c r="C49" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="43"/>
-      <c r="C51" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="S102" s="82">
+        <f t="shared" si="20"/>
+        <v>14.286000000000001</v>
+      </c>
+      <c r="T102" s="82">
+        <f t="shared" si="20"/>
+        <v>20.716999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
+  <mergeCells count="20">
+    <mergeCell ref="C71:C77"/>
+    <mergeCell ref="C57:C63"/>
+    <mergeCell ref="L82:L88"/>
+    <mergeCell ref="L89:L95"/>
+    <mergeCell ref="L96:L102"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C64:C70"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2400,10 +4076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R25"/>
+  <dimension ref="A3:Y25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2417,23 +4093,48 @@
     <col min="14" max="14" width="13.25" customWidth="1"/>
     <col min="15" max="15" width="8.625" customWidth="1"/>
     <col min="16" max="17" width="7.125" customWidth="1"/>
+    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.375" customWidth="1"/>
+    <col min="21" max="21" width="6.5" customWidth="1"/>
+    <col min="22" max="25" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D3" s="41" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="45"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="58"/>
+      <c r="S3" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>31</v>
@@ -2456,12 +4157,33 @@
       <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="S4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -2482,12 +4204,33 @@
       <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="S5" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -2509,272 +4252,282 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M12" s="48" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="L12" s="45"/>
+      <c r="M12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="M14" s="4" t="s">
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="L13" s="45"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="L15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="L15" s="45">
         <v>12</v>
       </c>
-      <c r="M15" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="9">
+      <c r="M15" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="32">
         <v>3</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="46">
         <v>65.844999999999999</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="46">
         <v>79.144000000000005</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R15" s="46">
         <f t="shared" ref="R15:R22" si="0">2/(1/P15+1/Q15)</f>
         <v>71.884579933650144</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="L16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="L16" s="45">
         <v>10</v>
       </c>
-      <c r="M16" s="47"/>
-      <c r="N16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16" s="9">
+      <c r="M16" s="59"/>
+      <c r="N16" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" s="32">
         <v>4</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="46">
         <v>66.667000000000002</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="46">
         <v>79.606999999999999</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="47">
         <f t="shared" si="0"/>
         <v>72.564637174070583</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="L17">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="L17" s="45">
         <v>11</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" s="9">
+      <c r="M17" s="59"/>
+      <c r="N17" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="32">
         <v>5</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="46">
         <v>65.022999999999996</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="46">
         <v>80.451999999999998</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="46">
         <f t="shared" si="0"/>
         <v>71.919304292833814</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L18">
+      <c r="L18" s="45">
         <v>13</v>
       </c>
-      <c r="M18" s="47"/>
-      <c r="N18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" s="9">
+      <c r="M18" s="59"/>
+      <c r="N18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" s="32">
         <v>6</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="46">
         <v>64.932000000000002</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="46">
         <v>76.287999999999997</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="46">
         <f t="shared" si="0"/>
         <v>70.153411924656567</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L19">
+      <c r="L19" s="45">
         <v>14</v>
       </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O19" s="9">
+      <c r="M19" s="59"/>
+      <c r="N19" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="32">
         <v>7</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19" s="46">
         <v>64.748999999999995</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="46">
         <v>78.429000000000002</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="46">
         <f t="shared" si="0"/>
         <v>70.935469429660984</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L20">
+      <c r="L20" s="45">
         <v>24</v>
       </c>
-      <c r="M20" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O20" s="9">
+      <c r="M20" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="32">
         <v>4</v>
       </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
+      <c r="P20" s="19">
+        <v>58.904000000000003</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>75.703999999999994</v>
+      </c>
+      <c r="R20" s="21">
+        <f t="shared" si="0"/>
+        <v>66.255622489005106</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L21">
+      <c r="L21" s="45">
         <v>2</v>
       </c>
-      <c r="M21" s="50"/>
-      <c r="N21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="18">
+      <c r="M21" s="62"/>
+      <c r="N21" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="46">
         <v>59.725999999999999</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="46">
         <v>70.55</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="46">
         <f t="shared" si="0"/>
         <v>64.688343209800735</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L22">
+      <c r="L22" s="45">
         <v>3</v>
       </c>
-      <c r="M22" s="50"/>
-      <c r="N22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P22" s="18">
+      <c r="M22" s="62"/>
+      <c r="N22" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="46">
         <v>58.539000000000001</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="46">
         <v>68.337000000000003</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22" s="46">
         <f t="shared" si="0"/>
         <v>63.059674690248748</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L23">
+      <c r="L23" s="45">
         <v>1</v>
       </c>
-      <c r="M23" s="50"/>
-      <c r="N23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P23" s="18">
+      <c r="M23" s="62"/>
+      <c r="N23" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="46">
         <v>57.991</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="46">
         <v>68.872</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23" s="46">
         <f>2/(1/P23+1/Q23)</f>
         <v>62.964870009380199</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L24">
+      <c r="L24" s="45">
         <v>4</v>
       </c>
-      <c r="M24" s="51"/>
-      <c r="N24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="18">
+      <c r="M24" s="63"/>
+      <c r="N24" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="46">
         <v>56.895000000000003</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="46">
         <v>69.686999999999998</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="46">
         <f t="shared" ref="R24" si="1">2/(1/P24+1/Q24)</f>
         <v>62.644639285206431</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M25" s="14"/>
+      <c r="M25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2790,10 +4543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:L20"/>
+  <dimension ref="D3:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:L4"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2805,388 +4558,432 @@
     <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E3" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-    </row>
-    <row r="4" spans="4:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="23" t="s">
+    <row r="3" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+    </row>
+    <row r="4" spans="4:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="93" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D5" s="52">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D5" s="87">
         <v>10</v>
       </c>
-      <c r="E5" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="26">
+      <c r="E5" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="42">
         <v>4</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="58">
+      <c r="G5" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="69">
         <v>300</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="42">
         <v>300</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="22">
         <v>66.667000000000002</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="22">
         <v>79.606999999999999</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="23">
         <f t="shared" ref="L5:L6" si="0">2/(1/J5+1/K5)</f>
         <v>72.564637174070583</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="9">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D6" s="87"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="40">
         <v>4</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="9">
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="40">
         <v>512</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <v>65.936000000000007</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="19">
         <v>58.843000000000004</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="24">
         <f t="shared" si="0"/>
         <v>62.187900976927203</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D7" s="52">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D7" s="87">
         <v>17</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="40">
         <v>4</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="54">
+      <c r="G7" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="65">
         <v>300</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="40">
         <v>300</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="9">
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D8" s="87"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="40">
         <v>4</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="9">
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="40">
         <v>512</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D9" s="52">
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D9" s="87">
         <v>15</v>
       </c>
-      <c r="E9" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="40">
         <v>4</v>
       </c>
-      <c r="G9" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="54">
+      <c r="G9" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="65">
         <v>512</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="40">
         <v>300</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <v>63.014000000000003</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <v>80.046000000000006</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="24">
         <f t="shared" ref="L9:L10" si="1">2/(1/J9+1/K9)</f>
         <v>70.516128114078015</v>
       </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="9">
+      <c r="M9" s="77">
+        <f>L11-L9</f>
+        <v>4.6318718859219814</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D10" s="87"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="40">
         <v>4</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="9">
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="40">
         <v>512</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <v>73.150999999999996</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <v>81.236999999999995</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="24">
         <f t="shared" si="1"/>
         <v>76.982249747389687</v>
       </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D11" s="52">
+      <c r="M10" s="77">
+        <f>L12-L10</f>
+        <v>5.6226431350369381</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D11" s="87">
         <v>18</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="40">
+        <v>4</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="65">
+        <v>512</v>
+      </c>
+      <c r="I11" s="40">
+        <v>300</v>
+      </c>
+      <c r="J11" s="19">
+        <v>69.588999999999999</v>
+      </c>
+      <c r="K11" s="19">
+        <v>81.671999999999997</v>
+      </c>
+      <c r="L11" s="24">
+        <v>75.147999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="87"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="41">
+        <v>4</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="41">
+        <v>512</v>
+      </c>
+      <c r="J12" s="26">
+        <v>81.096000000000004</v>
+      </c>
+      <c r="K12" s="26">
+        <v>84.171000000000006</v>
+      </c>
+      <c r="L12" s="27">
+        <f t="shared" ref="L12:L16" si="2">2/(1/J12+1/K12)</f>
+        <v>82.604892882426626</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D13" s="87">
+        <v>5</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="69">
+        <v>300</v>
+      </c>
+      <c r="I13" s="42">
+        <v>300</v>
+      </c>
+      <c r="J13" s="19">
+        <v>64.658000000000001</v>
+      </c>
+      <c r="K13" s="19">
+        <v>79.283000000000001</v>
+      </c>
+      <c r="L13" s="24">
+        <f t="shared" si="2"/>
+        <v>71.227519803252719</v>
+      </c>
+      <c r="M13" s="77">
+        <f>L15-L13</f>
+        <v>6.4912875391378577</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D14" s="87"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="40">
+        <v>512</v>
+      </c>
+      <c r="J14" s="19">
+        <v>65.936000000000007</v>
+      </c>
+      <c r="K14" s="19">
+        <v>49.183</v>
+      </c>
+      <c r="L14" s="24">
+        <f t="shared" si="2"/>
+        <v>56.340487460801434</v>
+      </c>
+      <c r="M14" s="77">
+        <f>L16-L14</f>
+        <v>5.1355453001423896</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D15" s="87">
+        <v>19</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="9">
-        <v>4</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="54">
+      <c r="G15" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="65">
+        <v>300</v>
+      </c>
+      <c r="I15" s="40">
+        <v>300</v>
+      </c>
+      <c r="J15" s="19">
+        <v>73.424999999999997</v>
+      </c>
+      <c r="K15" s="19">
+        <v>82.546000000000006</v>
+      </c>
+      <c r="L15" s="24">
+        <f t="shared" si="2"/>
+        <v>77.718807342390576</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D16" s="87"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="40">
         <v>512</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J16" s="19">
+        <v>76.072999999999993</v>
+      </c>
+      <c r="K16" s="19">
+        <v>51.579000000000001</v>
+      </c>
+      <c r="L16" s="24">
+        <f t="shared" si="2"/>
+        <v>61.476032760943824</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D17" s="87">
+        <v>16</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="65">
+        <v>512</v>
+      </c>
+      <c r="I17" s="40">
         <v>300</v>
       </c>
-      <c r="J11" s="21">
-        <v>69.588999999999999</v>
-      </c>
-      <c r="K11" s="21">
-        <v>81.671999999999997</v>
-      </c>
-      <c r="L11" s="29">
-        <v>75.147999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="52"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="31">
-        <v>4</v>
-      </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="31">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D18" s="87"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="40">
         <v>512</v>
       </c>
-      <c r="J12" s="32">
-        <v>81.096000000000004</v>
-      </c>
-      <c r="K12" s="32">
-        <v>84.171000000000006</v>
-      </c>
-      <c r="L12" s="33">
-        <f t="shared" ref="L12" si="2">2/(1/J12+1/K12)</f>
-        <v>82.604892882426626</v>
-      </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D13" s="52">
-        <v>5</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="58">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D19" s="87">
+        <v>20</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="65">
+        <v>512</v>
+      </c>
+      <c r="I19" s="40">
         <v>300</v>
       </c>
-      <c r="I13" s="26">
-        <v>300</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="9">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="87"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="41">
         <v>512</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="52">
-        <v>19</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="54">
-        <v>300</v>
-      </c>
-      <c r="I15" s="9">
-        <v>300</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="9">
-        <v>512</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D17" s="52">
-        <v>16</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="54">
-        <v>512</v>
-      </c>
-      <c r="I17" s="9">
-        <v>300</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="9">
-        <v>512</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D19" s="52">
-        <v>20</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="54">
-        <v>512</v>
-      </c>
-      <c r="I19" s="9">
-        <v>300</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="29"/>
-    </row>
-    <row r="20" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="52"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="31">
-        <v>512</v>
-      </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -3231,114 +5028,335 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:I10"/>
+  <dimension ref="D6:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
-      <c r="E6" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>49</v>
+      <c r="F7" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D8" s="1">
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="21">
+        <v>61</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="50">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="19">
         <v>67.944999999999993</v>
       </c>
-      <c r="H8" s="21">
+      <c r="J8" s="19">
         <v>79.317999999999998</v>
       </c>
-      <c r="I8" s="25">
-        <f t="shared" ref="I8:I10" si="0">2/(1/G8+1/H8)</f>
+      <c r="K8" s="21">
+        <f t="shared" ref="K8:K10" si="0">2/(1/I8+1/J8)</f>
         <v>73.192336296286229</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D9" s="1">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="21">
+        <v>62</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="50">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="19">
         <v>66.667000000000002</v>
       </c>
-      <c r="H9" s="21">
+      <c r="J9" s="19">
         <v>79.606999999999999</v>
       </c>
-      <c r="I9" s="21">
+      <c r="K9" s="19">
         <f t="shared" si="0"/>
         <v>72.564637174070583</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D10" s="1">
         <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="50">
+        <v>4</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="21">
+      <c r="I10" s="19">
         <v>64.84</v>
       </c>
-      <c r="H10" s="21">
+      <c r="J10" s="19">
         <v>77.09</v>
       </c>
-      <c r="I10" s="21">
+      <c r="K10" s="19">
         <f t="shared" si="0"/>
         <v>70.436350313534845</v>
       </c>
     </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13">
+        <v>512</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14">
+        <v>512</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15">
+        <v>512</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E17" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="50">
+        <v>8</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="19">
+        <v>82.009</v>
+      </c>
+      <c r="J19" s="19">
+        <v>76.686999999999998</v>
+      </c>
+      <c r="K19" s="19">
+        <f t="shared" ref="K19:K20" si="1">2/(1/I19+1/J19)</f>
+        <v>79.258761191208336</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="50">
+        <v>8</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="19">
+        <v>81.096000000000004</v>
+      </c>
+      <c r="J20" s="19">
+        <v>84.171000000000006</v>
+      </c>
+      <c r="K20" s="51">
+        <f t="shared" si="1"/>
+        <v>82.604892882426626</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="50">
+        <v>8</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="19">
+        <v>82.1</v>
+      </c>
+      <c r="J21" s="19">
+        <v>82.856999999999999</v>
+      </c>
+      <c r="K21" s="19">
+        <f t="shared" ref="K21" si="2">2/(1/I21+1/J21)</f>
+        <v>82.476763035215228</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E6:I6"/>
+  <mergeCells count="2">
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3361,118 +5379,118 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D3" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="D3" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D5" s="15" t="s">
+      <c r="E6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="4:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="4:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D11" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D9" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="4:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D10" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="4:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D11" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3501,16 +5519,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D5" s="4" t="s">
@@ -3535,12 +5553,12 @@
         <v>6</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="4:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
@@ -3560,34 +5578,34 @@
       <c r="J6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="4:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D7" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>99</v>
+      <c r="D7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/论文用到的实验数据.xlsx
+++ b/论文用到的实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Default Box的尺度大小" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="180">
   <si>
     <t>实验组名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,31 +360,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500*500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>multi4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[500*500, 700*300]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[500*500, 700*300, 700*500]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[500*500, 700*300, 700*500, 700*700]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>multi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[500*500, 700*300, 700*500, 700*700, 1200*500]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -702,6 +682,70 @@
   </si>
   <si>
     <t>数据扩充和不同训练尺度的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512*512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[512*512, 700*300]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[512*512, 700*300, 700*512]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[512*512, 700*300, 700*512, 700*700]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[512*512, 700*300, 700*512, 700*700, 1200*500]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[512*512, 700*512]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[700*300, 700*512]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI（0.1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非极大值抑制阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[512*512, 700*300, 700*512, 1200*700]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[512*512, 700*300, 700*512, 300*300]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白翔的单尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,9 +753,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="184" formatCode="0.000"/>
+    <numFmt numFmtId="186" formatCode="#,##0.000"/>
+    <numFmt numFmtId="188" formatCode="0.000000000000000_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -754,7 +801,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,8 +820,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1059,11 +1118,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,9 +1203,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1174,15 +1243,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,18 +1270,70 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,6 +1358,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1258,11 +1373,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1285,54 +1403,65 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="186" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,30 +1761,30 @@
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="15" width="7.375" customWidth="1"/>
     <col min="16" max="18" width="8.375" customWidth="1"/>
-    <col min="19" max="19" width="8.375" style="33" customWidth="1"/>
+    <col min="19" max="19" width="8.375" style="32" customWidth="1"/>
     <col min="20" max="20" width="7.5" customWidth="1"/>
     <col min="21" max="21" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J3" s="31" t="s">
-        <v>124</v>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+    </row>
+    <row r="3" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J3" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>111</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>1</v>
@@ -1675,14 +1804,14 @@
       <c r="R3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="34"/>
-    </row>
-    <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
+      <c r="S3" s="33"/>
+    </row>
+    <row r="4" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>1</v>
@@ -1709,157 +1838,157 @@
         <v>7</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="M4" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="35"/>
+      <c r="S4" s="34"/>
     </row>
     <row r="5" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="37" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="57" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="37" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="M6" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="38" t="s">
+      <c r="Q6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="R6" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1873,42 +2002,42 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
+      <c r="B10" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="30" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -1917,47 +2046,47 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="43" t="s">
-        <v>127</v>
+      <c r="J12" s="39" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>43.744</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>17.991</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <v>7.032</v>
       </c>
       <c r="G13" s="20">
@@ -1977,8 +2106,8 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="20">
@@ -2005,8 +2134,8 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="20">
@@ -2039,50 +2168,50 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="44" t="s">
+      <c r="B16" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="37" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>14.521000000000001</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>20</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <v>18.63</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>10.502000000000001</v>
       </c>
       <c r="H17" s="20">
@@ -2099,8 +2228,8 @@
       <c r="A18" s="1">
         <v>6</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="20">
@@ -2127,8 +2256,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="69"/>
+      <c r="C19" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="20">
@@ -2162,47 +2291,47 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="44" t="s">
+      <c r="B20" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="37" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <v>27.763000000000002</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <v>25.936</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <v>12.968</v>
       </c>
       <c r="G21" s="20">
@@ -2222,8 +2351,8 @@
       <c r="A22" s="1">
         <v>5</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="20">
@@ -2250,8 +2379,8 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="69"/>
+      <c r="C23" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="20">
@@ -2292,56 +2421,56 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="27" t="s">
         <v>6</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="78" t="s">
-        <v>150</v>
+      <c r="L26" s="52" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="68" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D27" s="20">
         <v>82.465999999999994</v>
@@ -2364,21 +2493,21 @@
       <c r="J27" s="17">
         <v>91.415999999999997</v>
       </c>
-      <c r="K27" s="77">
+      <c r="K27" s="51">
         <f>SUM(D27:I27)</f>
         <v>151.964</v>
       </c>
       <c r="L27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
-      <c r="B28" s="54"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20">
         <v>4.4999999999999998E-2</v>
@@ -2401,17 +2530,17 @@
       <c r="J28" s="17">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="K28" s="77">
+      <c r="K28" s="51">
         <f t="shared" ref="K28:K32" si="6">SUM(D28:I28)</f>
         <v>2.2439999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="67" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D29" s="20">
         <v>42.283000000000001</v>
@@ -2434,21 +2563,21 @@
       <c r="J29" s="17">
         <v>90.685000000000002</v>
       </c>
-      <c r="K29" s="77">
+      <c r="K29" s="51">
         <f>SUM(D29:J29)</f>
         <v>273.24199999999996</v>
       </c>
       <c r="L29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D30" s="20">
         <v>2.3E-2</v>
@@ -2471,17 +2600,17 @@
       <c r="J30" s="17">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="K30" s="77">
+      <c r="K30" s="51">
         <f>SUM(D30:J30)</f>
         <v>4.8370000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="55" t="s">
-        <v>109</v>
+      <c r="B31" s="67" t="s">
+        <v>104</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D31" s="20">
         <v>63.195999999999998</v>
@@ -2504,21 +2633,21 @@
       <c r="J31" s="17">
         <v>92.146000000000001</v>
       </c>
-      <c r="K31" s="77">
+      <c r="K31" s="51">
         <f t="shared" si="6"/>
         <v>170.136</v>
       </c>
       <c r="L31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" s="55"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D32" s="20">
         <v>3.4000000000000002E-2</v>
@@ -2541,23 +2670,23 @@
       <c r="J32" s="17">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="K32" s="77">
+      <c r="K32" s="51">
         <f t="shared" si="6"/>
         <v>3.0019999999999998</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
@@ -2589,11 +2718,11 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="68" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
@@ -2604,9 +2733,9 @@
       <c r="J38" s="17"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="54"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
@@ -2617,7 +2746,7 @@
       <c r="J39" s="17"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="67" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -2632,7 +2761,7 @@
       <c r="J40" s="17"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="55"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="4" t="s">
         <v>34</v>
       </c>
@@ -2645,8 +2774,8 @@
       <c r="J41" s="17"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="55" t="s">
-        <v>109</v>
+      <c r="B42" s="67" t="s">
+        <v>104</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>33</v>
@@ -2660,7 +2789,7 @@
       <c r="J42" s="18"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="55"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
@@ -2673,21 +2802,21 @@
       <c r="J43" s="18"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H46" s="33"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
-      <c r="C55" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
+      <c r="C55" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
@@ -2715,93 +2844,93 @@
       <c r="J56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K56" s="36" t="s">
+      <c r="K56" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
-      <c r="C57" s="79" t="s">
+      <c r="C57" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="44" t="s">
+      <c r="F57" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="44" t="s">
+      <c r="G57" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="37" t="s">
+      <c r="H57" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I57" s="38" t="s">
+      <c r="I57" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="J57" s="38" t="s">
+      <c r="J57" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="80" t="s">
-        <v>127</v>
+      <c r="K57" s="53" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
-      <c r="C58" s="81"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" s="82">
+        <v>149</v>
+      </c>
+      <c r="E58" s="54">
         <v>82.465999999999994</v>
       </c>
-      <c r="F58" s="82">
+      <c r="F58" s="54">
         <v>38.173999999999999</v>
       </c>
-      <c r="G58" s="82">
+      <c r="G58" s="54">
         <v>16.986000000000001</v>
       </c>
-      <c r="H58" s="82">
+      <c r="H58" s="54">
         <v>8.4930000000000003</v>
       </c>
-      <c r="I58" s="82">
+      <c r="I58" s="54">
         <v>4.1100000000000003</v>
       </c>
-      <c r="J58" s="82">
+      <c r="J58" s="54">
         <v>1.7350000000000001</v>
       </c>
-      <c r="K58" s="84">
+      <c r="K58" s="56">
         <v>91.415999999999997</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
-      <c r="C59" s="81"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="83">
+        <v>141</v>
+      </c>
+      <c r="E59" s="55">
         <v>43.744</v>
       </c>
-      <c r="F59" s="83">
+      <c r="F59" s="55">
         <v>17.991</v>
       </c>
-      <c r="G59" s="83">
+      <c r="G59" s="55">
         <v>7.032</v>
       </c>
-      <c r="H59" s="82">
+      <c r="H59" s="54">
         <v>2.1</v>
       </c>
-      <c r="I59" s="82">
+      <c r="I59" s="54">
         <v>0.73099999999999998</v>
       </c>
-      <c r="J59" s="82">
+      <c r="J59" s="54">
         <v>0.36499999999999999</v>
       </c>
-      <c r="K59" s="84">
+      <c r="K59" s="56">
         <v>62.192</v>
       </c>
     </row>
@@ -2809,219 +2938,219 @@
       <c r="B60" s="1">
         <v>7</v>
       </c>
-      <c r="C60" s="81"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="82">
+      <c r="E60" s="54">
         <v>69.221999999999994</v>
       </c>
-      <c r="F60" s="82">
+      <c r="F60" s="54">
         <v>85.281000000000006</v>
       </c>
-      <c r="G60" s="82">
+      <c r="G60" s="54">
         <v>82.796000000000006</v>
       </c>
-      <c r="H60" s="82">
+      <c r="H60" s="54">
         <v>85.185000000000002</v>
       </c>
-      <c r="I60" s="82">
+      <c r="I60" s="54">
         <v>100</v>
       </c>
-      <c r="J60" s="82">
+      <c r="J60" s="54">
         <v>100</v>
       </c>
-      <c r="K60" s="84">
+      <c r="K60" s="56">
         <v>74.671000000000006</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
-      <c r="C61" s="81"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="82">
+      <c r="E61" s="54">
         <f>2/(1/E59+1/E60)</f>
         <v>53.609885593895505</v>
       </c>
-      <c r="F61" s="82">
+      <c r="F61" s="54">
         <f t="shared" ref="F61:I61" si="7">2/(1/F59+1/F60)</f>
         <v>29.713581048105976</v>
       </c>
-      <c r="G61" s="82">
+      <c r="G61" s="54">
         <f t="shared" si="7"/>
         <v>12.963028721556753</v>
       </c>
-      <c r="H61" s="82">
+      <c r="H61" s="54">
         <f t="shared" si="7"/>
         <v>4.0989517099157933</v>
       </c>
-      <c r="I61" s="82">
+      <c r="I61" s="54">
         <f t="shared" si="7"/>
         <v>1.4513903366391676</v>
       </c>
-      <c r="J61" s="82">
+      <c r="J61" s="54">
         <f>2/(1/J59+1/J60)</f>
         <v>0.72734519005629461</v>
       </c>
-      <c r="K61" s="84">
+      <c r="K61" s="56">
         <v>67.861999999999995</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
-      <c r="C62" s="81"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" s="82">
+        <v>142</v>
+      </c>
+      <c r="E62" s="54">
         <f>E58-E59</f>
         <v>38.721999999999994</v>
       </c>
-      <c r="F62" s="82">
+      <c r="F62" s="54">
         <f t="shared" ref="F62:K62" si="8">F58-F59</f>
         <v>20.183</v>
       </c>
-      <c r="G62" s="82">
+      <c r="G62" s="54">
         <f t="shared" si="8"/>
         <v>9.9540000000000006</v>
       </c>
-      <c r="H62" s="82">
+      <c r="H62" s="54">
         <f t="shared" si="8"/>
         <v>6.3930000000000007</v>
       </c>
-      <c r="I62" s="82">
+      <c r="I62" s="54">
         <f t="shared" si="8"/>
         <v>3.3790000000000004</v>
       </c>
-      <c r="J62" s="82">
+      <c r="J62" s="54">
         <f t="shared" si="8"/>
         <v>1.37</v>
       </c>
-      <c r="K62" s="82">
+      <c r="K62" s="54">
         <f t="shared" si="8"/>
         <v>29.223999999999997</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
-      <c r="C63" s="85"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="82">
+        <v>143</v>
+      </c>
+      <c r="E63" s="54">
         <f>100-E60</f>
         <v>30.778000000000006</v>
       </c>
-      <c r="F63" s="82">
+      <c r="F63" s="54">
         <f t="shared" ref="F63:K63" si="9">100-F60</f>
         <v>14.718999999999994</v>
       </c>
-      <c r="G63" s="82">
+      <c r="G63" s="54">
         <f t="shared" si="9"/>
         <v>17.203999999999994</v>
       </c>
-      <c r="H63" s="82">
+      <c r="H63" s="54">
         <f t="shared" si="9"/>
         <v>14.814999999999998</v>
       </c>
-      <c r="I63" s="82">
+      <c r="I63" s="54">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J63" s="82">
+      <c r="J63" s="54">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K63" s="82">
+      <c r="K63" s="54">
         <f t="shared" si="9"/>
         <v>25.328999999999994</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
-      <c r="C64" s="79" t="s">
-        <v>121</v>
+      <c r="C64" s="63" t="s">
+        <v>116</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F64" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G64" s="44" t="s">
+      <c r="G64" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H64" s="44" t="s">
+      <c r="H64" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I64" s="38" t="s">
+      <c r="I64" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J64" s="38" t="s">
+      <c r="J64" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K64" s="84" t="s">
-        <v>128</v>
+      <c r="K64" s="56" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
-      <c r="C65" s="81"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="82">
+        <v>149</v>
+      </c>
+      <c r="E65" s="54">
         <v>42.283000000000001</v>
       </c>
-      <c r="F65" s="82">
+      <c r="F65" s="54">
         <v>54.247</v>
       </c>
-      <c r="G65" s="82">
+      <c r="G65" s="54">
         <v>43.287999999999997</v>
       </c>
-      <c r="H65" s="82">
+      <c r="H65" s="54">
         <v>25.753</v>
       </c>
-      <c r="I65" s="82">
+      <c r="I65" s="54">
         <v>14.064</v>
       </c>
-      <c r="J65" s="82">
+      <c r="J65" s="54">
         <v>2.9220000000000002</v>
       </c>
-      <c r="K65" s="84">
+      <c r="K65" s="56">
         <v>90.685000000000002</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
-      <c r="C66" s="81"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" s="83">
+        <v>141</v>
+      </c>
+      <c r="E66" s="55">
         <v>14.521000000000001</v>
       </c>
-      <c r="F66" s="83">
+      <c r="F66" s="55">
         <v>20</v>
       </c>
-      <c r="G66" s="83">
+      <c r="G66" s="55">
         <v>18.63</v>
       </c>
-      <c r="H66" s="83">
+      <c r="H66" s="55">
         <v>10.502000000000001</v>
       </c>
-      <c r="I66" s="82">
+      <c r="I66" s="54">
         <v>5.8449999999999998</v>
       </c>
-      <c r="J66" s="82">
+      <c r="J66" s="54">
         <v>1.0960000000000001</v>
       </c>
-      <c r="K66" s="84">
+      <c r="K66" s="56">
         <v>57.533999999999999</v>
       </c>
     </row>
@@ -3029,220 +3158,220 @@
       <c r="B67" s="1">
         <v>6</v>
       </c>
-      <c r="C67" s="81"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="82">
+      <c r="E67" s="54">
         <v>61.39</v>
       </c>
-      <c r="F67" s="82">
+      <c r="F67" s="54">
         <v>75.516999999999996</v>
       </c>
-      <c r="G67" s="82">
+      <c r="G67" s="54">
         <v>79.069999999999993</v>
       </c>
-      <c r="H67" s="82">
+      <c r="H67" s="54">
         <v>74.194000000000003</v>
       </c>
-      <c r="I67" s="82">
+      <c r="I67" s="54">
         <v>73.563000000000002</v>
       </c>
-      <c r="J67" s="82">
+      <c r="J67" s="54">
         <v>66.667000000000002</v>
       </c>
-      <c r="K67" s="84">
+      <c r="K67" s="56">
         <v>70.549000000000007</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
-      <c r="C68" s="81"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="82">
-        <f>2/(1/E66+1/E67)</f>
+      <c r="E68" s="54">
+        <f t="shared" ref="E68:K68" si="10">2/(1/E66+1/E67)</f>
         <v>23.48656163138412</v>
       </c>
-      <c r="F68" s="82">
-        <f>2/(1/F66+1/F67)</f>
+      <c r="F68" s="54">
+        <f t="shared" si="10"/>
         <v>31.624527571008297</v>
       </c>
-      <c r="G68" s="82">
-        <f>2/(1/G66+1/G67)</f>
+      <c r="G68" s="54">
+        <f t="shared" si="10"/>
         <v>30.155048106448312</v>
       </c>
-      <c r="H68" s="82">
-        <f>2/(1/H66+1/H67)</f>
+      <c r="H68" s="54">
+        <f t="shared" si="10"/>
         <v>18.399579389817703</v>
       </c>
-      <c r="I68" s="82">
-        <f>2/(1/I66+1/I67)</f>
+      <c r="I68" s="54">
+        <f t="shared" si="10"/>
         <v>10.829531911142453</v>
       </c>
-      <c r="J68" s="82">
-        <f>2/(1/J66+1/J67)</f>
+      <c r="J68" s="54">
+        <f t="shared" si="10"/>
         <v>2.1565465519531313</v>
       </c>
-      <c r="K68" s="84">
-        <f>2/(1/K66+1/K67)</f>
+      <c r="K68" s="56">
+        <f t="shared" si="10"/>
         <v>63.380248214048713</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
-      <c r="C69" s="81"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E69" s="82">
+        <v>142</v>
+      </c>
+      <c r="E69" s="54">
         <f>E65-E66</f>
         <v>27.762</v>
       </c>
-      <c r="F69" s="82">
-        <f t="shared" ref="F69:K69" si="10">F65-F66</f>
+      <c r="F69" s="54">
+        <f t="shared" ref="F69:K69" si="11">F65-F66</f>
         <v>34.247</v>
       </c>
-      <c r="G69" s="82">
-        <f t="shared" si="10"/>
+      <c r="G69" s="54">
+        <f t="shared" si="11"/>
         <v>24.657999999999998</v>
       </c>
-      <c r="H69" s="82">
-        <f t="shared" si="10"/>
+      <c r="H69" s="54">
+        <f t="shared" si="11"/>
         <v>15.250999999999999</v>
       </c>
-      <c r="I69" s="82">
-        <f t="shared" si="10"/>
+      <c r="I69" s="54">
+        <f t="shared" si="11"/>
         <v>8.2190000000000012</v>
       </c>
-      <c r="J69" s="82">
-        <f t="shared" si="10"/>
+      <c r="J69" s="54">
+        <f t="shared" si="11"/>
         <v>1.8260000000000001</v>
       </c>
-      <c r="K69" s="82">
-        <f t="shared" si="10"/>
+      <c r="K69" s="54">
+        <f t="shared" si="11"/>
         <v>33.151000000000003</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
-      <c r="C70" s="85"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E70" s="82">
+        <v>143</v>
+      </c>
+      <c r="E70" s="54">
         <f>100-E67</f>
         <v>38.61</v>
       </c>
-      <c r="F70" s="82">
-        <f t="shared" ref="F70:K70" si="11">100-F67</f>
+      <c r="F70" s="54">
+        <f t="shared" ref="F70:K70" si="12">100-F67</f>
         <v>24.483000000000004</v>
       </c>
-      <c r="G70" s="82">
-        <f t="shared" si="11"/>
+      <c r="G70" s="54">
+        <f t="shared" si="12"/>
         <v>20.930000000000007</v>
       </c>
-      <c r="H70" s="82">
-        <f t="shared" si="11"/>
+      <c r="H70" s="54">
+        <f t="shared" si="12"/>
         <v>25.805999999999997</v>
       </c>
-      <c r="I70" s="82">
-        <f t="shared" si="11"/>
+      <c r="I70" s="54">
+        <f t="shared" si="12"/>
         <v>26.436999999999998</v>
       </c>
-      <c r="J70" s="82">
-        <f t="shared" si="11"/>
+      <c r="J70" s="54">
+        <f t="shared" si="12"/>
         <v>33.332999999999998</v>
       </c>
-      <c r="K70" s="82">
-        <f t="shared" si="11"/>
+      <c r="K70" s="54">
+        <f t="shared" si="12"/>
         <v>29.450999999999993</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
-      <c r="C71" s="79" t="s">
-        <v>122</v>
+      <c r="C71" s="63" t="s">
+        <v>117</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="44" t="s">
+      <c r="F71" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G71" s="44" t="s">
+      <c r="G71" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="37" t="s">
+      <c r="H71" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="38" t="s">
+      <c r="I71" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J71" s="38" t="s">
+      <c r="J71" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="K71" s="84" t="s">
-        <v>129</v>
+      <c r="K71" s="56" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
-      <c r="C72" s="81"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E72" s="82">
+        <v>149</v>
+      </c>
+      <c r="E72" s="54">
         <v>63.195999999999998</v>
       </c>
-      <c r="F72" s="82">
+      <c r="F72" s="54">
         <v>56.073</v>
       </c>
-      <c r="G72" s="82">
+      <c r="G72" s="54">
         <v>29.68</v>
       </c>
-      <c r="H72" s="82">
+      <c r="H72" s="54">
         <v>12.42</v>
       </c>
-      <c r="I72" s="82">
+      <c r="I72" s="54">
         <v>6.6669999999999998</v>
       </c>
-      <c r="J72" s="82">
+      <c r="J72" s="54">
         <v>2.1</v>
       </c>
-      <c r="K72" s="84">
+      <c r="K72" s="56">
         <v>92.146000000000001</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
-      <c r="C73" s="81"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E73" s="83">
+        <v>144</v>
+      </c>
+      <c r="E73" s="55">
         <v>27.763000000000002</v>
       </c>
-      <c r="F73" s="83">
+      <c r="F73" s="55">
         <v>25.936</v>
       </c>
-      <c r="G73" s="83">
+      <c r="G73" s="55">
         <v>12.968</v>
       </c>
-      <c r="H73" s="82">
+      <c r="H73" s="54">
         <v>3.379</v>
       </c>
-      <c r="I73" s="82">
+      <c r="I73" s="54">
         <v>1.9179999999999999</v>
       </c>
-      <c r="J73" s="82">
+      <c r="J73" s="54">
         <v>0.54800000000000004</v>
       </c>
-      <c r="K73" s="82">
+      <c r="K73" s="54">
         <v>64.658000000000001</v>
       </c>
     </row>
@@ -3250,134 +3379,134 @@
       <c r="B74" s="1">
         <v>5</v>
       </c>
-      <c r="C74" s="81"/>
+      <c r="C74" s="64"/>
       <c r="D74" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="82">
+      <c r="E74" s="54">
         <v>72.554000000000002</v>
       </c>
-      <c r="F74" s="82">
+      <c r="F74" s="54">
         <v>84.024000000000001</v>
       </c>
-      <c r="G74" s="82">
+      <c r="G74" s="54">
         <v>86.584999999999994</v>
       </c>
-      <c r="H74" s="82">
+      <c r="H74" s="54">
         <v>80.435000000000002</v>
       </c>
-      <c r="I74" s="82">
+      <c r="I74" s="54">
         <v>84</v>
       </c>
-      <c r="J74" s="82">
+      <c r="J74" s="54">
         <v>85.713999999999999</v>
       </c>
-      <c r="K74" s="82">
+      <c r="K74" s="54">
         <v>79.283000000000001</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
-      <c r="C75" s="81"/>
+      <c r="C75" s="64"/>
       <c r="D75" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="82">
-        <f>2/(1/E73+1/E74)</f>
+      <c r="E75" s="54">
+        <f t="shared" ref="E75:K75" si="13">2/(1/E73+1/E74)</f>
         <v>40.159029915168915</v>
       </c>
-      <c r="F75" s="82">
-        <f>2/(1/F73+1/F74)</f>
+      <c r="F75" s="54">
+        <f t="shared" si="13"/>
         <v>39.637076464168786</v>
       </c>
-      <c r="G75" s="82">
-        <f>2/(1/G73+1/G74)</f>
+      <c r="G75" s="54">
+        <f t="shared" si="13"/>
         <v>22.557517704137492</v>
       </c>
-      <c r="H75" s="82">
-        <f>2/(1/H73+1/H74)</f>
+      <c r="H75" s="54">
+        <f t="shared" si="13"/>
         <v>6.4855481184527655</v>
       </c>
-      <c r="I75" s="82">
-        <f>2/(1/I73+1/I74)</f>
+      <c r="I75" s="54">
+        <f t="shared" si="13"/>
         <v>3.7503666286459181</v>
       </c>
-      <c r="J75" s="82">
-        <f>2/(1/J73+1/J74)</f>
+      <c r="J75" s="54">
+        <f t="shared" si="13"/>
         <v>1.0890373976953933</v>
       </c>
-      <c r="K75" s="86">
-        <f>2/(1/K73+1/K74)</f>
+      <c r="K75" s="57">
+        <f t="shared" si="13"/>
         <v>71.227519803252719</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
-      <c r="C76" s="81"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E76" s="82">
+        <v>142</v>
+      </c>
+      <c r="E76" s="54">
         <f>E72-E73</f>
         <v>35.432999999999993</v>
       </c>
-      <c r="F76" s="82">
-        <f t="shared" ref="F76:K76" si="12">F72-F73</f>
+      <c r="F76" s="54">
+        <f t="shared" ref="F76:K76" si="14">F72-F73</f>
         <v>30.137</v>
       </c>
-      <c r="G76" s="82">
-        <f t="shared" si="12"/>
+      <c r="G76" s="54">
+        <f t="shared" si="14"/>
         <v>16.712</v>
       </c>
-      <c r="H76" s="82">
-        <f t="shared" si="12"/>
+      <c r="H76" s="54">
+        <f t="shared" si="14"/>
         <v>9.0410000000000004</v>
       </c>
-      <c r="I76" s="82">
-        <f t="shared" si="12"/>
+      <c r="I76" s="54">
+        <f t="shared" si="14"/>
         <v>4.7489999999999997</v>
       </c>
-      <c r="J76" s="82">
-        <f t="shared" si="12"/>
+      <c r="J76" s="54">
+        <f t="shared" si="14"/>
         <v>1.552</v>
       </c>
-      <c r="K76" s="82">
-        <f t="shared" si="12"/>
+      <c r="K76" s="54">
+        <f t="shared" si="14"/>
         <v>27.488</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
-      <c r="C77" s="85"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E77" s="82">
+        <v>143</v>
+      </c>
+      <c r="E77" s="54">
         <f>100-E74</f>
         <v>27.445999999999998</v>
       </c>
-      <c r="F77" s="82">
-        <f t="shared" ref="F77:K77" si="13">100-F74</f>
+      <c r="F77" s="54">
+        <f t="shared" ref="F77:K77" si="15">100-F74</f>
         <v>15.975999999999999</v>
       </c>
-      <c r="G77" s="82">
-        <f t="shared" si="13"/>
+      <c r="G77" s="54">
+        <f t="shared" si="15"/>
         <v>13.415000000000006</v>
       </c>
-      <c r="H77" s="82">
-        <f t="shared" si="13"/>
+      <c r="H77" s="54">
+        <f t="shared" si="15"/>
         <v>19.564999999999998</v>
       </c>
-      <c r="I77" s="82">
-        <f t="shared" si="13"/>
+      <c r="I77" s="54">
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="J77" s="82">
-        <f t="shared" si="13"/>
+      <c r="J77" s="54">
+        <f t="shared" si="15"/>
         <v>14.286000000000001</v>
       </c>
-      <c r="K77" s="82">
-        <f t="shared" si="13"/>
+      <c r="K77" s="54">
+        <f t="shared" si="15"/>
         <v>20.716999999999999</v>
       </c>
     </row>
@@ -3406,658 +3535,647 @@
       <c r="S81" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T81" s="36" t="s">
+      <c r="T81" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="82" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L82" s="79" t="s">
-        <v>158</v>
+      <c r="L82" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="N82" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="N82" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="O82" s="44" t="s">
+      <c r="O82" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="P82" s="44" t="s">
+      <c r="P82" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="Q82" s="37" t="s">
+      <c r="Q82" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="R82" s="38" t="s">
+      <c r="R82" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="S82" s="38" t="s">
+      <c r="S82" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T82" s="80" t="s">
-        <v>127</v>
+      <c r="T82" s="53" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L83" s="81"/>
+      <c r="L83" s="64"/>
       <c r="M83" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="N83" s="82">
+        <v>150</v>
+      </c>
+      <c r="N83" s="54">
         <v>82.465999999999994</v>
       </c>
-      <c r="O83" s="82">
+      <c r="O83" s="54">
         <v>38.173999999999999</v>
       </c>
-      <c r="P83" s="82">
+      <c r="P83" s="54">
         <v>16.986000000000001</v>
       </c>
-      <c r="Q83" s="82">
+      <c r="Q83" s="54">
         <v>8.4930000000000003</v>
       </c>
-      <c r="R83" s="82">
+      <c r="R83" s="54">
         <v>4.1100000000000003</v>
       </c>
-      <c r="S83" s="82">
+      <c r="S83" s="54">
         <v>1.7350000000000001</v>
       </c>
-      <c r="T83" s="84">
+      <c r="T83" s="56">
         <v>91.415999999999997</v>
       </c>
     </row>
     <row r="84" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L84" s="81"/>
+      <c r="L84" s="64"/>
       <c r="M84" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="N84" s="83">
+        <v>141</v>
+      </c>
+      <c r="N84" s="55">
         <v>43.744</v>
       </c>
-      <c r="O84" s="83">
+      <c r="O84" s="55">
         <v>17.991</v>
       </c>
-      <c r="P84" s="83">
+      <c r="P84" s="55">
         <v>7.032</v>
       </c>
-      <c r="Q84" s="82">
+      <c r="Q84" s="54">
         <v>2.1</v>
       </c>
-      <c r="R84" s="82">
+      <c r="R84" s="54">
         <v>0.73099999999999998</v>
       </c>
-      <c r="S84" s="82">
+      <c r="S84" s="54">
         <v>0.36499999999999999</v>
       </c>
-      <c r="T84" s="84">
+      <c r="T84" s="56">
         <v>62.192</v>
       </c>
     </row>
     <row r="85" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L85" s="81"/>
+      <c r="L85" s="64"/>
       <c r="M85" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N85" s="82">
+      <c r="N85" s="54">
         <v>69.221999999999994</v>
       </c>
-      <c r="O85" s="82">
+      <c r="O85" s="54">
         <v>85.281000000000006</v>
       </c>
-      <c r="P85" s="82">
+      <c r="P85" s="54">
         <v>82.796000000000006</v>
       </c>
-      <c r="Q85" s="82">
+      <c r="Q85" s="54">
         <v>85.185000000000002</v>
       </c>
-      <c r="R85" s="82">
+      <c r="R85" s="54">
         <v>100</v>
       </c>
-      <c r="S85" s="82">
+      <c r="S85" s="54">
         <v>100</v>
       </c>
-      <c r="T85" s="84">
+      <c r="T85" s="56">
         <v>74.671000000000006</v>
       </c>
     </row>
     <row r="86" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L86" s="81"/>
+      <c r="L86" s="64"/>
       <c r="M86" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N86" s="82">
+      <c r="N86" s="54">
         <f>2/(1/N84+1/N85)</f>
         <v>53.609885593895505</v>
       </c>
-      <c r="O86" s="82">
-        <f t="shared" ref="O86:R86" si="14">2/(1/O84+1/O85)</f>
+      <c r="O86" s="54">
+        <f t="shared" ref="O86:R86" si="16">2/(1/O84+1/O85)</f>
         <v>29.713581048105976</v>
       </c>
-      <c r="P86" s="82">
-        <f t="shared" si="14"/>
+      <c r="P86" s="54">
+        <f t="shared" si="16"/>
         <v>12.963028721556753</v>
       </c>
-      <c r="Q86" s="82">
-        <f t="shared" si="14"/>
+      <c r="Q86" s="54">
+        <f t="shared" si="16"/>
         <v>4.0989517099157933</v>
       </c>
-      <c r="R86" s="82">
-        <f t="shared" si="14"/>
+      <c r="R86" s="54">
+        <f t="shared" si="16"/>
         <v>1.4513903366391676</v>
       </c>
-      <c r="S86" s="82">
+      <c r="S86" s="54">
         <f>2/(1/S84+1/S85)</f>
         <v>0.72734519005629461</v>
       </c>
-      <c r="T86" s="84">
+      <c r="T86" s="56">
         <v>67.861999999999995</v>
       </c>
     </row>
     <row r="87" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L87" s="81"/>
+      <c r="L87" s="64"/>
       <c r="M87" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N87" s="82">
+        <v>142</v>
+      </c>
+      <c r="N87" s="54">
         <f>N83-N84</f>
         <v>38.721999999999994</v>
       </c>
-      <c r="O87" s="82">
-        <f t="shared" ref="O87:T87" si="15">O83-O84</f>
+      <c r="O87" s="54">
+        <f t="shared" ref="O87:T87" si="17">O83-O84</f>
         <v>20.183</v>
       </c>
-      <c r="P87" s="82">
-        <f t="shared" si="15"/>
+      <c r="P87" s="54">
+        <f t="shared" si="17"/>
         <v>9.9540000000000006</v>
       </c>
-      <c r="Q87" s="82">
-        <f t="shared" si="15"/>
+      <c r="Q87" s="54">
+        <f t="shared" si="17"/>
         <v>6.3930000000000007</v>
       </c>
-      <c r="R87" s="82">
-        <f t="shared" si="15"/>
+      <c r="R87" s="54">
+        <f t="shared" si="17"/>
         <v>3.3790000000000004</v>
       </c>
-      <c r="S87" s="82">
-        <f t="shared" si="15"/>
+      <c r="S87" s="54">
+        <f t="shared" si="17"/>
         <v>1.37</v>
       </c>
-      <c r="T87" s="82">
-        <f t="shared" si="15"/>
+      <c r="T87" s="54">
+        <f t="shared" si="17"/>
         <v>29.223999999999997</v>
       </c>
     </row>
     <row r="88" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L88" s="85"/>
+      <c r="L88" s="65"/>
       <c r="M88" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N88" s="82">
+        <v>143</v>
+      </c>
+      <c r="N88" s="54">
         <f>100-N85</f>
         <v>30.778000000000006</v>
       </c>
-      <c r="O88" s="82">
-        <f t="shared" ref="O88:T88" si="16">100-O85</f>
+      <c r="O88" s="54">
+        <f t="shared" ref="O88:T88" si="18">100-O85</f>
         <v>14.718999999999994</v>
       </c>
-      <c r="P88" s="82">
-        <f t="shared" si="16"/>
+      <c r="P88" s="54">
+        <f t="shared" si="18"/>
         <v>17.203999999999994</v>
       </c>
-      <c r="Q88" s="82">
-        <f t="shared" si="16"/>
+      <c r="Q88" s="54">
+        <f t="shared" si="18"/>
         <v>14.814999999999998</v>
       </c>
-      <c r="R88" s="82">
-        <f t="shared" si="16"/>
+      <c r="R88" s="54">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S88" s="82">
-        <f t="shared" si="16"/>
+      <c r="S88" s="54">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T88" s="82">
-        <f t="shared" si="16"/>
+      <c r="T88" s="54">
+        <f t="shared" si="18"/>
         <v>25.328999999999994</v>
       </c>
     </row>
     <row r="89" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L89" s="79" t="s">
-        <v>159</v>
+      <c r="L89" s="63" t="s">
+        <v>154</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="N89" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="N89" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="O89" s="44" t="s">
+      <c r="O89" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="P89" s="44" t="s">
+      <c r="P89" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="Q89" s="44" t="s">
+      <c r="Q89" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="R89" s="38" t="s">
+      <c r="R89" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="S89" s="38" t="s">
+      <c r="S89" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="T89" s="84" t="s">
-        <v>128</v>
+      <c r="T89" s="56" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L90" s="81"/>
+      <c r="L90" s="64"/>
       <c r="M90" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="N90" s="82">
+        <v>150</v>
+      </c>
+      <c r="N90" s="54">
         <v>42.283000000000001</v>
       </c>
-      <c r="O90" s="82">
+      <c r="O90" s="54">
         <v>54.247</v>
       </c>
-      <c r="P90" s="82">
+      <c r="P90" s="54">
         <v>43.287999999999997</v>
       </c>
-      <c r="Q90" s="82">
+      <c r="Q90" s="54">
         <v>25.753</v>
       </c>
-      <c r="R90" s="82">
+      <c r="R90" s="54">
         <v>14.064</v>
       </c>
-      <c r="S90" s="82">
+      <c r="S90" s="54">
         <v>2.9220000000000002</v>
       </c>
-      <c r="T90" s="84">
+      <c r="T90" s="56">
         <v>90.685000000000002</v>
       </c>
     </row>
     <row r="91" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L91" s="81"/>
+      <c r="L91" s="64"/>
       <c r="M91" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="N91" s="83">
+        <v>141</v>
+      </c>
+      <c r="N91" s="55">
         <v>14.521000000000001</v>
       </c>
-      <c r="O91" s="83">
+      <c r="O91" s="55">
         <v>20</v>
       </c>
-      <c r="P91" s="83">
+      <c r="P91" s="55">
         <v>18.63</v>
       </c>
-      <c r="Q91" s="83">
+      <c r="Q91" s="55">
         <v>10.502000000000001</v>
       </c>
-      <c r="R91" s="82">
+      <c r="R91" s="54">
         <v>5.8449999999999998</v>
       </c>
-      <c r="S91" s="82">
+      <c r="S91" s="54">
         <v>1.0960000000000001</v>
       </c>
-      <c r="T91" s="84">
+      <c r="T91" s="56">
         <v>57.533999999999999</v>
       </c>
     </row>
     <row r="92" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L92" s="81"/>
+      <c r="L92" s="64"/>
       <c r="M92" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N92" s="82">
+      <c r="N92" s="54">
         <v>61.39</v>
       </c>
-      <c r="O92" s="82">
+      <c r="O92" s="54">
         <v>75.516999999999996</v>
       </c>
-      <c r="P92" s="82">
+      <c r="P92" s="54">
         <v>79.069999999999993</v>
       </c>
-      <c r="Q92" s="82">
+      <c r="Q92" s="54">
         <v>74.194000000000003</v>
       </c>
-      <c r="R92" s="82">
+      <c r="R92" s="54">
         <v>73.563000000000002</v>
       </c>
-      <c r="S92" s="82">
+      <c r="S92" s="54">
         <v>66.667000000000002</v>
       </c>
-      <c r="T92" s="84">
+      <c r="T92" s="56">
         <v>70.549000000000007</v>
       </c>
     </row>
     <row r="93" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L93" s="81"/>
+      <c r="L93" s="64"/>
       <c r="M93" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N93" s="82">
-        <f>2/(1/N91+1/N92)</f>
+      <c r="N93" s="54">
+        <f t="shared" ref="N93:T93" si="19">2/(1/N91+1/N92)</f>
         <v>23.48656163138412</v>
       </c>
-      <c r="O93" s="82">
-        <f>2/(1/O91+1/O92)</f>
+      <c r="O93" s="54">
+        <f t="shared" si="19"/>
         <v>31.624527571008297</v>
       </c>
-      <c r="P93" s="82">
-        <f>2/(1/P91+1/P92)</f>
+      <c r="P93" s="54">
+        <f t="shared" si="19"/>
         <v>30.155048106448312</v>
       </c>
-      <c r="Q93" s="82">
-        <f>2/(1/Q91+1/Q92)</f>
+      <c r="Q93" s="54">
+        <f t="shared" si="19"/>
         <v>18.399579389817703</v>
       </c>
-      <c r="R93" s="82">
-        <f>2/(1/R91+1/R92)</f>
+      <c r="R93" s="54">
+        <f t="shared" si="19"/>
         <v>10.829531911142453</v>
       </c>
-      <c r="S93" s="82">
-        <f>2/(1/S91+1/S92)</f>
+      <c r="S93" s="54">
+        <f t="shared" si="19"/>
         <v>2.1565465519531313</v>
       </c>
-      <c r="T93" s="84">
-        <f>2/(1/T91+1/T92)</f>
+      <c r="T93" s="56">
+        <f t="shared" si="19"/>
         <v>63.380248214048713</v>
       </c>
     </row>
     <row r="94" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L94" s="81"/>
+      <c r="L94" s="64"/>
       <c r="M94" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N94" s="82">
+        <v>142</v>
+      </c>
+      <c r="N94" s="54">
         <f>N90-N91</f>
         <v>27.762</v>
       </c>
-      <c r="O94" s="82">
-        <f t="shared" ref="O94:T94" si="17">O90-O91</f>
+      <c r="O94" s="54">
+        <f t="shared" ref="O94:T94" si="20">O90-O91</f>
         <v>34.247</v>
       </c>
-      <c r="P94" s="82">
-        <f t="shared" si="17"/>
+      <c r="P94" s="54">
+        <f t="shared" si="20"/>
         <v>24.657999999999998</v>
       </c>
-      <c r="Q94" s="82">
-        <f t="shared" si="17"/>
+      <c r="Q94" s="54">
+        <f t="shared" si="20"/>
         <v>15.250999999999999</v>
       </c>
-      <c r="R94" s="82">
-        <f t="shared" si="17"/>
+      <c r="R94" s="54">
+        <f t="shared" si="20"/>
         <v>8.2190000000000012</v>
       </c>
-      <c r="S94" s="82">
-        <f t="shared" si="17"/>
+      <c r="S94" s="54">
+        <f t="shared" si="20"/>
         <v>1.8260000000000001</v>
       </c>
-      <c r="T94" s="82">
-        <f t="shared" si="17"/>
+      <c r="T94" s="54">
+        <f t="shared" si="20"/>
         <v>33.151000000000003</v>
       </c>
     </row>
     <row r="95" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L95" s="85"/>
+      <c r="L95" s="65"/>
       <c r="M95" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N95" s="82">
+        <v>143</v>
+      </c>
+      <c r="N95" s="54">
         <f>100-N92</f>
         <v>38.61</v>
       </c>
-      <c r="O95" s="82">
-        <f t="shared" ref="O95:T95" si="18">100-O92</f>
+      <c r="O95" s="54">
+        <f t="shared" ref="O95:T95" si="21">100-O92</f>
         <v>24.483000000000004</v>
       </c>
-      <c r="P95" s="82">
-        <f t="shared" si="18"/>
+      <c r="P95" s="54">
+        <f t="shared" si="21"/>
         <v>20.930000000000007</v>
       </c>
-      <c r="Q95" s="82">
-        <f t="shared" si="18"/>
+      <c r="Q95" s="54">
+        <f t="shared" si="21"/>
         <v>25.805999999999997</v>
       </c>
-      <c r="R95" s="82">
-        <f t="shared" si="18"/>
+      <c r="R95" s="54">
+        <f t="shared" si="21"/>
         <v>26.436999999999998</v>
       </c>
-      <c r="S95" s="82">
-        <f t="shared" si="18"/>
+      <c r="S95" s="54">
+        <f t="shared" si="21"/>
         <v>33.332999999999998</v>
       </c>
-      <c r="T95" s="82">
-        <f t="shared" si="18"/>
+      <c r="T95" s="54">
+        <f t="shared" si="21"/>
         <v>29.450999999999993</v>
       </c>
     </row>
     <row r="96" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L96" s="79" t="s">
-        <v>160</v>
+      <c r="L96" s="63" t="s">
+        <v>155</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="N96" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="N96" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="O96" s="44" t="s">
+      <c r="O96" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="P96" s="44" t="s">
+      <c r="P96" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q96" s="37" t="s">
+      <c r="Q96" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R96" s="38" t="s">
+      <c r="R96" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="S96" s="38" t="s">
+      <c r="S96" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T96" s="84" t="s">
-        <v>129</v>
+      <c r="T96" s="56" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L97" s="81"/>
+      <c r="L97" s="64"/>
       <c r="M97" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="N97" s="82">
+        <v>150</v>
+      </c>
+      <c r="N97" s="54">
         <v>63.195999999999998</v>
       </c>
-      <c r="O97" s="82">
+      <c r="O97" s="54">
         <v>56.073</v>
       </c>
-      <c r="P97" s="82">
+      <c r="P97" s="54">
         <v>29.68</v>
       </c>
-      <c r="Q97" s="82">
+      <c r="Q97" s="54">
         <v>12.42</v>
       </c>
-      <c r="R97" s="82">
+      <c r="R97" s="54">
         <v>6.6669999999999998</v>
       </c>
-      <c r="S97" s="82">
+      <c r="S97" s="54">
         <v>2.1</v>
       </c>
-      <c r="T97" s="84">
+      <c r="T97" s="56">
         <v>92.146000000000001</v>
       </c>
     </row>
     <row r="98" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L98" s="81"/>
+      <c r="L98" s="64"/>
       <c r="M98" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N98" s="83">
+        <v>144</v>
+      </c>
+      <c r="N98" s="55">
         <v>27.763000000000002</v>
       </c>
-      <c r="O98" s="83">
+      <c r="O98" s="55">
         <v>25.936</v>
       </c>
-      <c r="P98" s="83">
+      <c r="P98" s="55">
         <v>12.968</v>
       </c>
-      <c r="Q98" s="82">
+      <c r="Q98" s="54">
         <v>3.379</v>
       </c>
-      <c r="R98" s="82">
+      <c r="R98" s="54">
         <v>1.9179999999999999</v>
       </c>
-      <c r="S98" s="82">
+      <c r="S98" s="54">
         <v>0.54800000000000004</v>
       </c>
-      <c r="T98" s="82">
+      <c r="T98" s="54">
         <v>64.658000000000001</v>
       </c>
     </row>
     <row r="99" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L99" s="81"/>
+      <c r="L99" s="64"/>
       <c r="M99" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N99" s="82">
+      <c r="N99" s="54">
         <v>72.554000000000002</v>
       </c>
-      <c r="O99" s="82">
+      <c r="O99" s="54">
         <v>84.024000000000001</v>
       </c>
-      <c r="P99" s="82">
+      <c r="P99" s="54">
         <v>86.584999999999994</v>
       </c>
-      <c r="Q99" s="82">
+      <c r="Q99" s="54">
         <v>80.435000000000002</v>
       </c>
-      <c r="R99" s="82">
+      <c r="R99" s="54">
         <v>84</v>
       </c>
-      <c r="S99" s="82">
+      <c r="S99" s="54">
         <v>85.713999999999999</v>
       </c>
-      <c r="T99" s="82">
+      <c r="T99" s="54">
         <v>79.283000000000001</v>
       </c>
     </row>
     <row r="100" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L100" s="81"/>
+      <c r="L100" s="64"/>
       <c r="M100" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N100" s="82">
-        <f>2/(1/N98+1/N99)</f>
+      <c r="N100" s="54">
+        <f t="shared" ref="N100:T100" si="22">2/(1/N98+1/N99)</f>
         <v>40.159029915168915</v>
       </c>
-      <c r="O100" s="82">
-        <f>2/(1/O98+1/O99)</f>
+      <c r="O100" s="54">
+        <f t="shared" si="22"/>
         <v>39.637076464168786</v>
       </c>
-      <c r="P100" s="82">
-        <f>2/(1/P98+1/P99)</f>
+      <c r="P100" s="54">
+        <f t="shared" si="22"/>
         <v>22.557517704137492</v>
       </c>
-      <c r="Q100" s="82">
-        <f>2/(1/Q98+1/Q99)</f>
+      <c r="Q100" s="54">
+        <f t="shared" si="22"/>
         <v>6.4855481184527655</v>
       </c>
-      <c r="R100" s="82">
-        <f>2/(1/R98+1/R99)</f>
+      <c r="R100" s="54">
+        <f t="shared" si="22"/>
         <v>3.7503666286459181</v>
       </c>
-      <c r="S100" s="82">
-        <f>2/(1/S98+1/S99)</f>
+      <c r="S100" s="54">
+        <f t="shared" si="22"/>
         <v>1.0890373976953933</v>
       </c>
-      <c r="T100" s="86">
-        <f>2/(1/T98+1/T99)</f>
+      <c r="T100" s="57">
+        <f t="shared" si="22"/>
         <v>71.227519803252719</v>
       </c>
     </row>
     <row r="101" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L101" s="81"/>
+      <c r="L101" s="64"/>
       <c r="M101" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N101" s="82">
+        <v>142</v>
+      </c>
+      <c r="N101" s="54">
         <f>N97-N98</f>
         <v>35.432999999999993</v>
       </c>
-      <c r="O101" s="82">
-        <f t="shared" ref="O101:T101" si="19">O97-O98</f>
+      <c r="O101" s="54">
+        <f t="shared" ref="O101:T101" si="23">O97-O98</f>
         <v>30.137</v>
       </c>
-      <c r="P101" s="82">
-        <f t="shared" si="19"/>
+      <c r="P101" s="54">
+        <f t="shared" si="23"/>
         <v>16.712</v>
       </c>
-      <c r="Q101" s="82">
-        <f t="shared" si="19"/>
+      <c r="Q101" s="54">
+        <f t="shared" si="23"/>
         <v>9.0410000000000004</v>
       </c>
-      <c r="R101" s="82">
-        <f t="shared" si="19"/>
+      <c r="R101" s="54">
+        <f t="shared" si="23"/>
         <v>4.7489999999999997</v>
       </c>
-      <c r="S101" s="82">
-        <f t="shared" si="19"/>
+      <c r="S101" s="54">
+        <f t="shared" si="23"/>
         <v>1.552</v>
       </c>
-      <c r="T101" s="82">
-        <f t="shared" si="19"/>
+      <c r="T101" s="54">
+        <f t="shared" si="23"/>
         <v>27.488</v>
       </c>
     </row>
     <row r="102" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L102" s="85"/>
+      <c r="L102" s="65"/>
       <c r="M102" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N102" s="82">
+        <v>143</v>
+      </c>
+      <c r="N102" s="54">
         <f>100-N99</f>
         <v>27.445999999999998</v>
       </c>
-      <c r="O102" s="82">
-        <f t="shared" ref="O102:T102" si="20">100-O99</f>
+      <c r="O102" s="54">
+        <f t="shared" ref="O102:T102" si="24">100-O99</f>
         <v>15.975999999999999</v>
       </c>
-      <c r="P102" s="82">
-        <f t="shared" si="20"/>
+      <c r="P102" s="54">
+        <f t="shared" si="24"/>
         <v>13.415000000000006</v>
       </c>
-      <c r="Q102" s="82">
-        <f t="shared" si="20"/>
+      <c r="Q102" s="54">
+        <f t="shared" si="24"/>
         <v>19.564999999999998</v>
       </c>
-      <c r="R102" s="82">
-        <f t="shared" si="20"/>
+      <c r="R102" s="54">
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
-      <c r="S102" s="82">
-        <f t="shared" si="20"/>
+      <c r="S102" s="54">
+        <f t="shared" si="24"/>
         <v>14.286000000000001</v>
       </c>
-      <c r="T102" s="82">
-        <f t="shared" si="20"/>
+      <c r="T102" s="54">
+        <f t="shared" si="24"/>
         <v>20.716999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C71:C77"/>
-    <mergeCell ref="C57:C63"/>
-    <mergeCell ref="L82:L88"/>
-    <mergeCell ref="L89:L95"/>
-    <mergeCell ref="L96:L102"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C64:C70"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -4067,6 +4185,17 @@
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C71:C77"/>
+    <mergeCell ref="C57:C63"/>
+    <mergeCell ref="L82:L88"/>
+    <mergeCell ref="L89:L95"/>
+    <mergeCell ref="L96:L102"/>
+    <mergeCell ref="C64:C70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4100,18 +4229,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="58"/>
-      <c r="S3" s="39" t="s">
-        <v>161</v>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="72"/>
+      <c r="S3" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>1</v>
@@ -4134,7 +4263,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D4" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>31</v>
@@ -4157,7 +4286,7 @@
       <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="38" t="s">
         <v>50</v>
       </c>
       <c r="T4" s="3" t="s">
@@ -4204,7 +4333,7 @@
       <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="38" t="s">
         <v>39</v>
       </c>
       <c r="T5" s="3" t="s">
@@ -4253,71 +4382,71 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="L12" s="45"/>
-      <c r="M12" s="60" t="s">
+      <c r="L12" s="41"/>
+      <c r="M12" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="L13" s="45"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="31" t="s">
+      <c r="L14" s="41"/>
+      <c r="M14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="P14" s="31" t="s">
+      <c r="O14" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="31" t="s">
+      <c r="Q14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="31" t="s">
+      <c r="R14" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
-      <c r="L15" s="45">
+      <c r="L15" s="41">
         <v>12</v>
       </c>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="31">
         <v>3</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="42">
         <v>65.844999999999999</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="42">
         <v>79.144000000000005</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="42">
         <f t="shared" ref="R15:R22" si="0">2/(1/P15+1/Q15)</f>
         <v>71.884579933650144</v>
       </c>
@@ -4325,23 +4454,23 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
-      <c r="L16" s="45">
+      <c r="L16" s="41">
         <v>10</v>
       </c>
-      <c r="M16" s="59"/>
-      <c r="N16" s="31" t="s">
+      <c r="M16" s="73"/>
+      <c r="N16" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="31">
         <v>4</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="42">
         <v>66.667000000000002</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="42">
         <v>79.606999999999999</v>
       </c>
-      <c r="R16" s="47">
+      <c r="R16" s="43">
         <f t="shared" si="0"/>
         <v>72.564637174070583</v>
       </c>
@@ -4349,82 +4478,82 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
-      <c r="L17" s="45">
+      <c r="L17" s="41">
         <v>11</v>
       </c>
-      <c r="M17" s="59"/>
-      <c r="N17" s="31" t="s">
+      <c r="M17" s="73"/>
+      <c r="N17" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="31">
         <v>5</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="42">
         <v>65.022999999999996</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="42">
         <v>80.451999999999998</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="42">
         <f t="shared" si="0"/>
         <v>71.919304292833814</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="45">
+      <c r="L18" s="41">
         <v>13</v>
       </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="31" t="s">
+      <c r="M18" s="73"/>
+      <c r="N18" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="31">
         <v>6</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="42">
         <v>64.932000000000002</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="42">
         <v>76.287999999999997</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="42">
         <f t="shared" si="0"/>
         <v>70.153411924656567</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L19" s="45">
+      <c r="L19" s="41">
         <v>14</v>
       </c>
-      <c r="M19" s="59"/>
-      <c r="N19" s="31" t="s">
+      <c r="M19" s="73"/>
+      <c r="N19" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="31">
         <v>7</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="42">
         <v>64.748999999999995</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="42">
         <v>78.429000000000002</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="42">
         <f t="shared" si="0"/>
         <v>70.935469429660984</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L20" s="45">
+      <c r="L20" s="41">
         <v>24</v>
       </c>
-      <c r="M20" s="61" t="s">
+      <c r="M20" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20" s="32">
+      <c r="N20" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" s="31">
         <v>4</v>
       </c>
       <c r="P20" s="19">
@@ -4439,89 +4568,89 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="45">
+      <c r="L21" s="41">
         <v>2</v>
       </c>
-      <c r="M21" s="62"/>
-      <c r="N21" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O21" s="32" t="s">
+      <c r="M21" s="76"/>
+      <c r="N21" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="42">
         <v>59.725999999999999</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="42">
         <v>70.55</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="42">
         <f t="shared" si="0"/>
         <v>64.688343209800735</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="45">
+      <c r="L22" s="41">
         <v>3</v>
       </c>
-      <c r="M22" s="62"/>
-      <c r="N22" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="O22" s="32" t="s">
+      <c r="M22" s="76"/>
+      <c r="N22" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="P22" s="46">
+      <c r="P22" s="42">
         <v>58.539000000000001</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="42">
         <v>68.337000000000003</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="42">
         <f t="shared" si="0"/>
         <v>63.059674690248748</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="45">
+      <c r="L23" s="41">
         <v>1</v>
       </c>
-      <c r="M23" s="62"/>
-      <c r="N23" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="O23" s="48" t="s">
+      <c r="M23" s="76"/>
+      <c r="N23" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O23" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="P23" s="46">
+      <c r="P23" s="42">
         <v>57.991</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="42">
         <v>68.872</v>
       </c>
-      <c r="R23" s="46">
+      <c r="R23" s="42">
         <f>2/(1/P23+1/Q23)</f>
         <v>62.964870009380199</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L24" s="45">
+      <c r="L24" s="41">
         <v>4</v>
       </c>
-      <c r="M24" s="63"/>
-      <c r="N24" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="O24" s="32" t="s">
+      <c r="M24" s="77"/>
+      <c r="N24" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="O24" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="46">
+      <c r="P24" s="42">
         <v>56.895000000000003</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="42">
         <v>69.686999999999998</v>
       </c>
-      <c r="R24" s="46">
+      <c r="R24" s="42">
         <f t="shared" ref="R24" si="1">2/(1/P24+1/Q24)</f>
         <v>62.644639285206431</v>
       </c>
@@ -4543,10 +4672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:M20"/>
+  <dimension ref="D2:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4558,61 +4687,62 @@
     <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-    </row>
-    <row r="4" spans="4:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="91" t="s">
+    <row r="2" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="95"/>
+    </row>
+    <row r="4" spans="4:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="91" t="s">
+      <c r="I4" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="L4" s="62" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D5" s="87">
+    <row r="5" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D5" s="85">
         <v>10</v>
       </c>
-      <c r="E5" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="42">
+      <c r="E5" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="94">
         <v>4</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="83">
         <v>300</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="50">
         <v>300</v>
       </c>
       <c r="J5" s="22">
@@ -4622,19 +4752,21 @@
         <v>79.606999999999999</v>
       </c>
       <c r="L5" s="23">
-        <f t="shared" ref="L5:L6" si="0">2/(1/J5+1/K5)</f>
+        <f t="shared" ref="L5:L8" si="0">2/(1/J5+1/K5)</f>
         <v>72.564637174070583</v>
       </c>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D6" s="87"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="40">
-        <v>4</v>
-      </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="40">
+      <c r="O5" s="51">
+        <f>L5-L6</f>
+        <v>10.37673619714338</v>
+      </c>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D6" s="85"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="48">
         <v>512</v>
       </c>
       <c r="J6" s="19">
@@ -4648,61 +4780,81 @@
         <v>62.187900976927203</v>
       </c>
     </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D7" s="87">
+    <row r="7" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D7" s="85">
         <v>17</v>
       </c>
-      <c r="E7" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="40">
+      <c r="E7" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="78">
         <v>4</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="80">
         <v>300</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="48">
         <v>300</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D8" s="87"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="40">
+      <c r="J7" s="19">
+        <v>74.703000000000003</v>
+      </c>
+      <c r="K7" s="19">
+        <v>83.983999999999995</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>79.072094777770076</v>
+      </c>
+      <c r="M7" s="51">
+        <f>L7-L5</f>
+        <v>6.5074576036994927</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D8" s="85"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="48">
+        <v>512</v>
+      </c>
+      <c r="J8" s="19">
+        <v>74.247</v>
+      </c>
+      <c r="K8" s="19">
+        <v>59.779000000000003</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>66.232095459090033</v>
+      </c>
+      <c r="M8" s="51">
+        <f>L8-L6</f>
+        <v>4.0441944821628297</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D9" s="85">
+        <v>15</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="78">
         <v>4</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="40">
+      <c r="G9" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="80">
         <v>512</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D9" s="87">
-        <v>15</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="40">
-        <v>4</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="65">
-        <v>512</v>
-      </c>
-      <c r="I9" s="40">
+      <c r="I9" s="48">
         <v>300</v>
       </c>
       <c r="J9" s="19">
@@ -4715,20 +4867,18 @@
         <f t="shared" ref="L9:L10" si="1">2/(1/J9+1/K9)</f>
         <v>70.516128114078015</v>
       </c>
-      <c r="M9" s="77">
-        <f>L11-L9</f>
-        <v>4.6318718859219814</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D10" s="87"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="40">
-        <v>4</v>
-      </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="40">
+      <c r="N9" s="51">
+        <f>L9-L5</f>
+        <v>-2.0485090599925684</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D10" s="85"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="48">
         <v>512</v>
       </c>
       <c r="J10" s="19">
@@ -4741,79 +4891,101 @@
         <f t="shared" si="1"/>
         <v>76.982249747389687</v>
       </c>
-      <c r="M10" s="77">
+      <c r="N10" s="51">
+        <f>L10-L6</f>
+        <v>14.794348770462484</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D11" s="85">
+        <v>18</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="78">
+        <v>4</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="80">
+        <v>512</v>
+      </c>
+      <c r="I11" s="48">
+        <v>300</v>
+      </c>
+      <c r="J11" s="19">
+        <v>69.588999999999999</v>
+      </c>
+      <c r="K11" s="19">
+        <v>81.671999999999997</v>
+      </c>
+      <c r="L11" s="24">
+        <v>75.147999999999996</v>
+      </c>
+      <c r="M11" s="51">
+        <f>L11-L9</f>
+        <v>4.6318718859219814</v>
+      </c>
+      <c r="N11" s="51">
+        <f>L11-L7</f>
+        <v>-3.9240947777700796</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="85"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="49">
+        <v>512</v>
+      </c>
+      <c r="J12" s="25">
+        <v>81.096000000000004</v>
+      </c>
+      <c r="K12" s="25">
+        <v>84.171000000000006</v>
+      </c>
+      <c r="L12" s="26">
+        <f t="shared" ref="L12:L20" si="2">2/(1/J12+1/K12)</f>
+        <v>82.604892882426626</v>
+      </c>
+      <c r="M12" s="51">
         <f>L12-L10</f>
         <v>5.6226431350369381</v>
       </c>
-    </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D11" s="87">
-        <v>18</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="40">
-        <v>4</v>
-      </c>
-      <c r="G11" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="65">
-        <v>512</v>
-      </c>
-      <c r="I11" s="40">
+      <c r="N12" s="51">
+        <f>L12-L8</f>
+        <v>16.372797423336593</v>
+      </c>
+      <c r="O12" s="51">
+        <f>L12-L11</f>
+        <v>7.4568928824266294</v>
+      </c>
+      <c r="P12" s="51">
+        <f>L12-L7</f>
+        <v>3.5327981046565498</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D13" s="85">
+        <v>5</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="83">
         <v>300</v>
       </c>
-      <c r="J11" s="19">
-        <v>69.588999999999999</v>
-      </c>
-      <c r="K11" s="19">
-        <v>81.671999999999997</v>
-      </c>
-      <c r="L11" s="24">
-        <v>75.147999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="87"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="41">
-        <v>4</v>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="41">
-        <v>512</v>
-      </c>
-      <c r="J12" s="26">
-        <v>81.096000000000004</v>
-      </c>
-      <c r="K12" s="26">
-        <v>84.171000000000006</v>
-      </c>
-      <c r="L12" s="27">
-        <f t="shared" ref="L12:L16" si="2">2/(1/J12+1/K12)</f>
-        <v>82.604892882426626</v>
-      </c>
-    </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D13" s="87">
-        <v>5</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="69">
-        <v>300</v>
-      </c>
-      <c r="I13" s="42">
+      <c r="I13" s="50">
         <v>300</v>
       </c>
       <c r="J13" s="19">
@@ -4826,20 +4998,15 @@
         <f t="shared" si="2"/>
         <v>71.227519803252719</v>
       </c>
-      <c r="M13" s="77">
-        <f>L15-L13</f>
-        <v>6.4912875391378577</v>
-      </c>
-    </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D14" s="87"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="40">
+      <c r="M13" s="51"/>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D14" s="85"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="48">
         <v>512</v>
       </c>
       <c r="J14" s="19">
@@ -4852,28 +5019,25 @@
         <f t="shared" si="2"/>
         <v>56.340487460801434</v>
       </c>
-      <c r="M14" s="77">
-        <f>L16-L14</f>
-        <v>5.1355453001423896</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D15" s="87">
+      <c r="M14" s="51"/>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D15" s="85">
         <v>19</v>
       </c>
-      <c r="E15" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="65" t="s">
+      <c r="E15" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="80">
         <v>300</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="48">
         <v>300</v>
       </c>
       <c r="J15" s="19">
@@ -4886,16 +5050,18 @@
         <f t="shared" si="2"/>
         <v>77.718807342390576</v>
       </c>
-    </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D16" s="87"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="40">
+      <c r="M15" s="51">
+        <f>L15-L13</f>
+        <v>6.4912875391378577</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D16" s="85"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="48">
         <v>512</v>
       </c>
       <c r="J16" s="19">
@@ -4908,85 +5074,166 @@
         <f t="shared" si="2"/>
         <v>61.476032760943824</v>
       </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D17" s="87">
+      <c r="M16" s="51">
+        <f>L16-L14</f>
+        <v>5.1355453001423896</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D17" s="85">
         <v>16</v>
       </c>
-      <c r="E17" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="65" t="s">
+      <c r="E17" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="80">
         <v>512</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="48">
         <v>300</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D18" s="87"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="40">
+      <c r="J17" s="19">
+        <v>62.74</v>
+      </c>
+      <c r="K17" s="19">
+        <v>76.846000000000004</v>
+      </c>
+      <c r="L17" s="24">
+        <f t="shared" si="2"/>
+        <v>69.080252174286812</v>
+      </c>
+      <c r="N17" s="51">
+        <f>L17-L13</f>
+        <v>-2.1472676289659063</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D18" s="85"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="48">
         <v>512</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D19" s="87">
+      <c r="J18" s="19">
+        <v>73.606999999999999</v>
+      </c>
+      <c r="K18" s="19">
+        <v>79.331000000000003</v>
+      </c>
+      <c r="L18" s="24">
+        <f t="shared" si="2"/>
+        <v>76.361884122977955</v>
+      </c>
+      <c r="N18" s="51">
+        <f>L18-L14</f>
+        <v>20.021396662176521</v>
+      </c>
+      <c r="P18" s="51">
+        <f>L18-L13</f>
+        <v>5.1343643197252362</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D19" s="85">
         <v>20</v>
       </c>
-      <c r="E19" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="65" t="s">
+      <c r="E19" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="80">
         <v>512</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="48">
         <v>300</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="87"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="41">
+      <c r="J19" s="19">
+        <v>70.046000000000006</v>
+      </c>
+      <c r="K19" s="19">
+        <v>82.296000000000006</v>
+      </c>
+      <c r="L19" s="24">
+        <f t="shared" si="2"/>
+        <v>75.678481521839018</v>
+      </c>
+      <c r="M19" s="51">
+        <f>L19-L17</f>
+        <v>6.5982293475522056</v>
+      </c>
+      <c r="N19" s="51">
+        <f>L19-L15</f>
+        <v>-2.0403258205515584</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="85"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="49">
         <v>512</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
+      <c r="J20" s="25">
+        <v>80.912999999999997</v>
+      </c>
+      <c r="K20" s="25">
+        <v>83.584999999999994</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="2"/>
+        <v>82.227298872934625</v>
+      </c>
+      <c r="M20" s="51">
+        <f>L20-L18</f>
+        <v>5.8654147499566704</v>
+      </c>
+      <c r="N20" s="51">
+        <f>L20-L16</f>
+        <v>20.751266111990802</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="41">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
@@ -5000,26 +5247,9 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5030,7 +5260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -5045,26 +5275,26 @@
   <sheetData>
     <row r="6" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>142</v>
+      <c r="F7" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>60</v>
@@ -5086,10 +5316,10 @@
       <c r="E8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="50">
+      <c r="F8" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="46">
         <v>4</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -5113,10 +5343,10 @@
       <c r="E9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="50">
+      <c r="F9" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="46">
         <v>4</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -5140,10 +5370,10 @@
       <c r="E10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="50">
+      <c r="F10" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="46">
         <v>4</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -5165,13 +5395,13 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H13">
         <v>512</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -5180,10 +5410,10 @@
         <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.2">
@@ -5191,13 +5421,13 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H14">
         <v>512</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J14">
         <v>4</v>
@@ -5206,10 +5436,10 @@
         <v>4</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.2">
@@ -5217,13 +5447,13 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H15">
         <v>512</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -5232,43 +5462,43 @@
         <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="E17" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
+      <c r="E17" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="31" t="s">
+      <c r="F18" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5276,17 +5506,17 @@
       <c r="D19">
         <v>25</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="50">
+      <c r="F19" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="46">
         <v>8</v>
       </c>
-      <c r="H19" s="32" t="s">
-        <v>137</v>
+      <c r="H19" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="I19" s="19">
         <v>82.009</v>
@@ -5303,17 +5533,17 @@
       <c r="D20">
         <v>18</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="50">
+      <c r="E20" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="46">
         <v>8</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I20" s="19">
         <v>81.096000000000004</v>
@@ -5321,7 +5551,7 @@
       <c r="J20" s="19">
         <v>84.171000000000006</v>
       </c>
-      <c r="K20" s="51">
+      <c r="K20" s="47">
         <f t="shared" si="1"/>
         <v>82.604892882426626</v>
       </c>
@@ -5330,17 +5560,17 @@
       <c r="D21">
         <v>26</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="50">
+      <c r="G21" s="46">
         <v>8</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I21" s="19">
         <v>82.1</v>
@@ -5365,30 +5595,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:I11"/>
+  <dimension ref="C3:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D3" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D3" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
@@ -5408,7 +5640,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
@@ -5420,19 +5652,19 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D6" s="14" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D7" s="14" t="s">
         <v>77</v>
       </c>
@@ -5444,60 +5676,675 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D8" s="14" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D9" s="14" t="s">
         <v>79</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="4:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D10" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="4:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D11" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E12" s="103" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E13" s="103" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F14" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="O14" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+    </row>
+    <row r="15" spans="3:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D15" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="103" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="106">
+        <v>79.909000000000006</v>
+      </c>
+      <c r="G16" s="106">
+        <v>88.117000000000004</v>
+      </c>
+      <c r="H16" s="107">
+        <f>2/(1/F16+1/G16)</f>
+        <v>83.812521312177893</v>
+      </c>
+      <c r="I16" s="106">
+        <v>0.25</v>
+      </c>
+      <c r="J16" s="106">
+        <v>79.909000000000006</v>
+      </c>
+      <c r="K16" s="106">
+        <v>87.850999999999999</v>
+      </c>
+      <c r="L16" s="108">
+        <f>2/(1/J16+1/K16)</f>
+        <v>83.692007141154036</v>
+      </c>
+      <c r="M16" s="106">
+        <v>0.4</v>
+      </c>
+      <c r="N16" s="109">
+        <f>H16-L16</f>
+        <v>0.12051417102385642</v>
+      </c>
+      <c r="O16" s="14">
+        <v>79.909000000000006</v>
+      </c>
+      <c r="P16" s="14">
+        <v>87.850999999999999</v>
+      </c>
+      <c r="Q16" s="100">
+        <f>2/(1/O16+1/P16)</f>
+        <v>83.692007141154036</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="106" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="110">
+        <v>82.831000000000003</v>
+      </c>
+      <c r="G17" s="110">
+        <v>86.793999999999997</v>
+      </c>
+      <c r="H17" s="107">
+        <f>2/(1/F17+1/G17)</f>
+        <v>84.766205618275606</v>
+      </c>
+      <c r="I17" s="106">
+        <v>0.25</v>
+      </c>
+      <c r="J17" s="110">
+        <v>81.186999999999998</v>
+      </c>
+      <c r="K17" s="110">
+        <v>87.070999999999998</v>
+      </c>
+      <c r="L17" s="108">
+        <f t="shared" ref="L17:L25" si="0">2/(1/J17+1/K17)</f>
+        <v>84.026117949815159</v>
+      </c>
+      <c r="M17" s="106">
+        <v>0.4</v>
+      </c>
+      <c r="N17" s="109">
+        <f t="shared" ref="N17:N25" si="1">H17-L17</f>
+        <v>0.74008766846044693</v>
+      </c>
+      <c r="O17">
+        <v>81.186999999999998</v>
+      </c>
+      <c r="P17">
+        <v>87.070999999999998</v>
+      </c>
+      <c r="Q17" s="100">
+        <f t="shared" ref="Q17:Q25" si="2">2/(1/O17+1/P17)</f>
+        <v>84.026117949815159</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18">
+        <v>80.638999999999996</v>
+      </c>
+      <c r="G18">
+        <v>87.512</v>
+      </c>
+      <c r="H18" s="99">
+        <f>2/(1/F18+1/G18)</f>
+        <v>83.935036580216575</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J18">
+        <v>80.548000000000002</v>
+      </c>
+      <c r="K18">
+        <v>87.760999999999996</v>
+      </c>
+      <c r="L18" s="100">
+        <f t="shared" si="0"/>
+        <v>83.999940918192124</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="N18" s="104">
+        <f t="shared" si="1"/>
+        <v>-6.4904337975548287E-2</v>
+      </c>
+      <c r="O18">
+        <v>80.548000000000002</v>
+      </c>
+      <c r="P18">
+        <v>87.760999999999996</v>
+      </c>
+      <c r="Q18" s="100">
+        <f t="shared" si="2"/>
+        <v>83.999940918192124</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="113">
+        <v>83.013999999999996</v>
+      </c>
+      <c r="G19" s="113">
+        <v>88.596000000000004</v>
+      </c>
+      <c r="H19" s="114">
+        <f>2/(1/F19+1/G19)</f>
+        <v>85.714216467571816</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="14">
+        <v>82.74</v>
+      </c>
+      <c r="K19" s="14">
+        <v>86.45</v>
+      </c>
+      <c r="L19" s="100">
+        <f t="shared" si="0"/>
+        <v>84.554323541580473</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="N19" s="104">
+        <f t="shared" si="1"/>
+        <v>1.1598929259913433</v>
+      </c>
+      <c r="O19" s="14">
+        <v>82.74</v>
+      </c>
+      <c r="P19" s="14">
+        <v>86.45</v>
+      </c>
+      <c r="Q19" s="100">
+        <f t="shared" si="2"/>
+        <v>84.554323541580473</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="108">
+        <v>82.831000000000003</v>
+      </c>
+      <c r="G20" s="108">
+        <v>86.546000000000006</v>
+      </c>
+      <c r="H20" s="108">
+        <f t="shared" ref="H20:H25" si="3">2/(1/F20+1/G20)</f>
+        <v>84.647758857459991</v>
+      </c>
+      <c r="I20" s="106">
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="108">
+        <v>84.018000000000001</v>
+      </c>
+      <c r="K20" s="108">
+        <v>83.409000000000006</v>
+      </c>
+      <c r="L20" s="108">
+        <f t="shared" si="0"/>
+        <v>83.712392409826379</v>
+      </c>
+      <c r="M20" s="106">
+        <v>0.4</v>
+      </c>
+      <c r="N20" s="109">
+        <f t="shared" si="1"/>
+        <v>0.9353664476336121</v>
+      </c>
+      <c r="O20" s="100">
+        <v>84.018000000000001</v>
+      </c>
+      <c r="P20" s="100">
+        <v>83.409000000000006</v>
+      </c>
+      <c r="Q20" s="100">
+        <f t="shared" si="2"/>
+        <v>83.712392409826379</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="100">
+        <v>81.004999999999995</v>
+      </c>
+      <c r="G21" s="100">
+        <v>82.054000000000002</v>
+      </c>
+      <c r="H21" s="100">
+        <f t="shared" si="3"/>
+        <v>81.526125758161157</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J21">
+        <v>82.647999999999996</v>
+      </c>
+      <c r="K21">
+        <v>80.302000000000007</v>
+      </c>
+      <c r="L21" s="100">
+        <f t="shared" si="0"/>
+        <v>81.458112255293031</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="N21" s="104">
+        <f t="shared" si="1"/>
+        <v>6.8013502868126352E-2</v>
+      </c>
+      <c r="O21">
+        <v>82.647999999999996</v>
+      </c>
+      <c r="P21">
+        <v>80.302000000000007</v>
+      </c>
+      <c r="Q21" s="100">
+        <f t="shared" si="2"/>
+        <v>81.458112255293031</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="100">
+        <v>66.849000000000004</v>
+      </c>
+      <c r="G22" s="100">
+        <v>84.623999999999995</v>
+      </c>
+      <c r="H22" s="100">
+        <f t="shared" si="3"/>
+        <v>74.69357279515161</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J22" s="19">
+        <v>69.588999999999999</v>
+      </c>
+      <c r="K22" s="19">
+        <v>81.671999999999997</v>
+      </c>
+      <c r="L22" s="100">
+        <f t="shared" si="0"/>
+        <v>75.14789414323586</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="N22" s="104">
+        <f t="shared" si="1"/>
+        <v>-0.45432134808424962</v>
+      </c>
+      <c r="O22" s="19">
+        <v>69.588999999999999</v>
+      </c>
+      <c r="P22" s="19">
+        <v>81.671999999999997</v>
+      </c>
+      <c r="Q22" s="100">
+        <f t="shared" si="2"/>
+        <v>75.14789414323586</v>
+      </c>
+      <c r="R22" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="102">
+        <v>78.813000000000002</v>
+      </c>
+      <c r="G23" s="102">
+        <v>86.647000000000006</v>
+      </c>
+      <c r="H23" s="100">
+        <f t="shared" si="3"/>
+        <v>82.544542620572955</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="19">
+        <v>81.096000000000004</v>
+      </c>
+      <c r="K23" s="19">
+        <v>84.171000000000006</v>
+      </c>
+      <c r="L23" s="100">
+        <f t="shared" si="0"/>
+        <v>82.604892882426626</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="N23" s="104">
+        <f t="shared" si="1"/>
+        <v>-6.0350261853670872E-2</v>
+      </c>
+      <c r="O23" s="19">
+        <v>81.096000000000004</v>
+      </c>
+      <c r="P23" s="19">
+        <v>84.171000000000006</v>
+      </c>
+      <c r="Q23" s="100">
+        <f t="shared" si="2"/>
+        <v>82.604892882426626</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>0.75</v>
+      </c>
+      <c r="E24" s="106" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="111">
+        <v>84.932000000000002</v>
+      </c>
+      <c r="G24" s="111">
+        <v>83.183999999999997</v>
+      </c>
+      <c r="H24" s="111">
+        <f t="shared" si="3"/>
+        <v>84.048912512788789</v>
+      </c>
+      <c r="I24" s="106">
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="111">
+        <v>84.748999999999995</v>
+      </c>
+      <c r="K24" s="111">
+        <v>80.626000000000005</v>
+      </c>
+      <c r="L24" s="108">
+        <f t="shared" si="0"/>
+        <v>82.63610429629631</v>
+      </c>
+      <c r="M24" s="106">
+        <v>0.4</v>
+      </c>
+      <c r="N24" s="109">
+        <f t="shared" si="1"/>
+        <v>1.4128082164924791</v>
+      </c>
+      <c r="O24" s="105">
+        <v>84.748999999999995</v>
+      </c>
+      <c r="P24" s="105">
+        <v>80.626000000000005</v>
+      </c>
+      <c r="Q24" s="100">
+        <f t="shared" si="2"/>
+        <v>82.63610429629631</v>
+      </c>
+      <c r="R24" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="111">
+        <v>83.653000000000006</v>
+      </c>
+      <c r="G25" s="111">
+        <v>86.99</v>
+      </c>
+      <c r="H25" s="111">
+        <f t="shared" si="3"/>
+        <v>85.288871738073055</v>
+      </c>
+      <c r="I25" s="106">
+        <v>0.25</v>
+      </c>
+      <c r="J25" s="112">
+        <v>83.195999999999998</v>
+      </c>
+      <c r="K25" s="110">
+        <v>85.781999999999996</v>
+      </c>
+      <c r="L25" s="108">
+        <f t="shared" si="0"/>
+        <v>84.469212228810846</v>
+      </c>
+      <c r="M25" s="106">
+        <v>0.4</v>
+      </c>
+      <c r="N25" s="109">
+        <f t="shared" si="1"/>
+        <v>0.81965950926220899</v>
+      </c>
+      <c r="O25" s="103">
+        <v>83.195999999999998</v>
+      </c>
+      <c r="P25">
+        <v>85.781999999999996</v>
+      </c>
+      <c r="Q25" s="100">
+        <f t="shared" si="2"/>
+        <v>84.469212228810846</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="D3:I3"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="O14:R14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5519,16 +6366,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D5" s="4" t="s">
@@ -5553,12 +6400,12 @@
         <v>6</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="4:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D6" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
@@ -5584,28 +6431,28 @@
     </row>
     <row r="7" spans="4:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D7" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
